--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -14,7 +14,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="45"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -28,7 +44,7 @@
       <i/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -38,6 +54,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -52,9 +73,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -65,416 +91,155 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="0" t="inlineStr">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Organismo</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>REPORTE CLINICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Clasificación Programática​</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Eje</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>06-17-2022 08:23:18 am</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Organismo</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
           <t>139</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Dependencia</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>PP</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Descripción del PP</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Resumen Narrativo</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>Acción o Proyecto</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Indicador</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>Dato de la variable</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I8" s="4" t="inlineStr">
         <is>
           <t>Línea Base</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>Meta</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>Frecuencia</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>Avance</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>Medio de Verificación</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>Supuesto</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>Actividad Completa</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 101</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>Nuevo A</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L3" s="0" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N3" s="0" t="inlineStr">
-        <is>
-          <t>Supuesto</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>Actividad Completa</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 101</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>Nuevo 2</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N4" s="0" t="inlineStr">
-        <is>
-          <t>Supuesto</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>Aprovechar los recursos propios</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 3</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>Variable A</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>21234</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K5" s="0" t="inlineStr">
-        <is>
-          <t>Semanal</t>
-        </is>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="N5" s="0" t="inlineStr">
-        <is>
-          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>Aprovechar los recursos propios</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 3</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
-        <is>
-          <t>Variable B</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>21234</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K6" s="0" t="inlineStr">
-        <is>
-          <t>Semanal</t>
-        </is>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="N6" s="0" t="inlineStr">
-        <is>
-          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>Aprovechar los recursos propios</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 3</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>Variable C</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>21234</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>Semanal</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>Accion 1 test ACEstrategico</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 101</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Prueba resumen</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>Indicador 1 ACEstrategico</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Actividad Completa</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -484,12 +249,27 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>Nuevo A</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
@@ -499,24 +279,24 @@
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bimestral</t>
         </is>
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N9" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>Supuesto</t>
         </is>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Actividad Completa</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -526,12 +306,27 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>Nuevo 2</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
@@ -541,39 +336,54 @@
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bimestral</t>
         </is>
       </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N10" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>Supuesto</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 3</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>Variable A</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>21234</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
@@ -583,39 +393,54 @@
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Semanal</t>
         </is>
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="N11" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
         </is>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 3</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>Variable B</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>21234</t>
         </is>
       </c>
       <c r="J12" s="0" t="inlineStr">
@@ -625,39 +450,54 @@
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Semanal</t>
         </is>
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="N12" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
         </is>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 3</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>Variable C</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>21234</t>
         </is>
       </c>
       <c r="J13" s="0" t="inlineStr">
@@ -667,24 +507,24 @@
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Semanal</t>
         </is>
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="N13" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>Supuesto de la actividad Aprovechar los recursos propios</t>
         </is>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Actividad Completa</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
@@ -694,27 +534,12 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>Nuevo A</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
@@ -722,21 +547,26 @@
           <t>100</t>
         </is>
       </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
       <c r="L14" s="0" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N14" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Actividad Completa</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
@@ -746,27 +576,12 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>Nuevo 2</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
@@ -774,14 +589,19 @@
           <t>100</t>
         </is>
       </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
       <c r="L15" s="0" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="N15" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
@@ -830,7 +650,7 @@
     <row r="17" spans="1:14">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
@@ -840,12 +660,12 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J17" s="0" t="inlineStr">
@@ -855,24 +675,24 @@
       </c>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>Semanal</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="L17" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N17" s="0" t="inlineStr">
         <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
@@ -882,12 +702,12 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
@@ -897,7 +717,7 @@
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>Semanal</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="L18" s="0" t="inlineStr">
@@ -907,7 +727,7 @@
       </c>
       <c r="N18" s="0" t="inlineStr">
         <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
@@ -956,7 +776,7 @@
     <row r="20" spans="1:14">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Actividad Completa</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
@@ -966,12 +786,27 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Nuevo A</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
@@ -981,24 +816,24 @@
       </c>
       <c r="K20" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bimestral</t>
         </is>
       </c>
       <c r="L20" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N20" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>Supuesto</t>
         </is>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Actividad Completa</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
@@ -1008,12 +843,27 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>Nuevo 2</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
@@ -1023,24 +873,24 @@
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bimestral</t>
         </is>
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N21" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>Supuesto</t>
         </is>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
@@ -1050,12 +900,12 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J22" s="0" t="inlineStr">
@@ -1065,24 +915,24 @@
       </c>
       <c r="K22" s="0" t="inlineStr">
         <is>
-          <t>Semanal</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="L22" s="0" t="inlineStr">
         <is>
-          <t>12312</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N22" s="0" t="inlineStr">
         <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Actividad Completa</t>
+          <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
@@ -1097,22 +947,7 @@
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G23" s="0" t="inlineStr">
-        <is>
-          <t>Nuevo A</t>
-        </is>
-      </c>
-      <c r="I23" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
       <c r="J23" s="0" t="inlineStr">
@@ -1120,21 +955,26 @@
           <t>100</t>
         </is>
       </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
       <c r="L23" s="0" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N23" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
         </is>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Actividad Completa</t>
+          <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr">
@@ -1149,22 +989,7 @@
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G24" s="0" t="inlineStr">
-        <is>
-          <t>Nuevo 2</t>
-        </is>
-      </c>
-      <c r="I24" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
       <c r="J24" s="0" t="inlineStr">
@@ -1172,56 +997,46 @@
           <t>100</t>
         </is>
       </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
       <c r="L24" s="0" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N24" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
         </is>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Prueba Reportes 001</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 9</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>Indicador Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I25" s="0" t="inlineStr">
-        <is>
-          <t>1234</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr">
@@ -1231,54 +1046,39 @@
       </c>
       <c r="L25" s="0" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N25" s="0" t="inlineStr">
         <is>
-          <t>Supuesto Prueba Reportes 001</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Prueba Reportes 001</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 9</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
-          <t>Indicador Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G26" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I26" s="0" t="inlineStr">
-        <is>
-          <t>1234</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
@@ -1288,54 +1088,39 @@
       </c>
       <c r="L26" s="0" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N26" s="0" t="inlineStr">
         <is>
-          <t>Supuesto Prueba Reportes 001</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Prueba Reportes 001</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 9</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
-          <t>Indicador Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I27" s="0" t="inlineStr">
-        <is>
-          <t>1234</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K27" s="0" t="inlineStr">
@@ -1345,19 +1130,19 @@
       </c>
       <c r="L27" s="0" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>60</t>
         </is>
       </c>
       <c r="N27" s="0" t="inlineStr">
         <is>
-          <t>Supuesto Prueba Reportes 001</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
       <c r="B28" s="0" t="inlineStr">
@@ -1367,12 +1152,12 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
@@ -1382,24 +1167,24 @@
       </c>
       <c r="K28" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Semanal</t>
         </is>
       </c>
       <c r="L28" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12312</t>
         </is>
       </c>
       <c r="N28" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
         </is>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Actividad Completa</t>
         </is>
       </c>
       <c r="B29" s="0" t="inlineStr">
@@ -1414,7 +1199,22 @@
       </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>Nuevo A</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="J29" s="0" t="inlineStr">
@@ -1424,24 +1224,24 @@
       </c>
       <c r="K29" s="0" t="inlineStr">
         <is>
-          <t>Semanal</t>
+          <t>Bimestral</t>
         </is>
       </c>
       <c r="L29" s="0" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N29" s="0" t="inlineStr">
         <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
+          <t>Supuesto</t>
         </is>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Actividad Completa</t>
         </is>
       </c>
       <c r="B30" s="0" t="inlineStr">
@@ -1456,7 +1256,22 @@
       </c>
       <c r="E30" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>Nuevo 2</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="J30" s="0" t="inlineStr">
@@ -1466,44 +1281,59 @@
       </c>
       <c r="K30" s="0" t="inlineStr">
         <is>
-          <t>Semanal</t>
+          <t>Bimestral</t>
         </is>
       </c>
       <c r="L30" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N30" s="0" t="inlineStr">
         <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
+          <t>Supuesto</t>
         </is>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Prueba Reportes 001</t>
         </is>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 9</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E31" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Indicador Prueba Reportes 001</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
         </is>
       </c>
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="K31" s="0" t="inlineStr">
@@ -1513,39 +1343,54 @@
       </c>
       <c r="L31" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="N31" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>Supuesto Prueba Reportes 001</t>
         </is>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Prueba Reportes 001</t>
         </is>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 9</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Indicador Prueba Reportes 001</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
         </is>
       </c>
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="K32" s="0" t="inlineStr">
@@ -1555,24 +1400,24 @@
       </c>
       <c r="L32" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="N32" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>Supuesto Prueba Reportes 001</t>
         </is>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Prueba Reportes 001</t>
         </is>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 9</t>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
@@ -1582,27 +1427,42 @@
       </c>
       <c r="E33" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Indicador Prueba Reportes 001</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
         </is>
       </c>
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="K33" s="0" t="inlineStr">
         <is>
-          <t>Semanal</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="L33" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="N33" s="0" t="inlineStr">
         <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
+          <t>Supuesto Prueba Reportes 001</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1511,7 @@
     <row r="35" spans="1:14">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
       <c r="B35" s="0" t="inlineStr">
@@ -1661,12 +1521,12 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
@@ -1676,17 +1536,17 @@
       </c>
       <c r="K35" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Semanal</t>
         </is>
       </c>
       <c r="L35" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="N35" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1595,7 @@
     <row r="37" spans="1:14">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B37" s="0" t="inlineStr">
@@ -1745,12 +1605,12 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
@@ -1760,59 +1620,44 @@
       </c>
       <c r="K37" s="0" t="inlineStr">
         <is>
-          <t>Semanal</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="L37" s="0" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N37" s="0" t="inlineStr">
         <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>Prueba avances 001</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
-        </is>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G38" s="0" t="inlineStr">
-        <is>
-          <t>Variable 1</t>
-        </is>
-      </c>
-      <c r="I38" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K38" s="0" t="inlineStr">
@@ -1822,24 +1667,24 @@
       </c>
       <c r="L38" s="0" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N38" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>Prueba avances 001</t>
+          <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D39" s="0" t="inlineStr">
@@ -1849,84 +1694,54 @@
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
-        </is>
-      </c>
-      <c r="F39" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G39" s="0" t="inlineStr">
-        <is>
-          <t>Variable 2</t>
-        </is>
-      </c>
-      <c r="I39" s="0" t="inlineStr">
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K39" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L39" s="0" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="J39" s="0" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="K39" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="L39" s="0" t="inlineStr">
-        <is>
-          <t>4000</t>
-        </is>
-      </c>
       <c r="N39" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
         </is>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>Prueba avances 001</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
-        </is>
-      </c>
-      <c r="F40" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G40" s="0" t="inlineStr">
-        <is>
-          <t>Variable 3</t>
-        </is>
-      </c>
-      <c r="I40" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K40" s="0" t="inlineStr">
@@ -1936,54 +1751,39 @@
       </c>
       <c r="L40" s="0" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N40" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>Prueba avances 001</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
-        </is>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G41" s="0" t="inlineStr">
-        <is>
-          <t>Variable 4</t>
-        </is>
-      </c>
-      <c r="I41" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K41" s="0" t="inlineStr">
@@ -1993,19 +1793,19 @@
       </c>
       <c r="L41" s="0" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N41" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
       <c r="B42" s="0" t="inlineStr">
@@ -2015,12 +1815,12 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
@@ -2030,24 +1830,24 @@
       </c>
       <c r="K42" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Semanal</t>
         </is>
       </c>
       <c r="L42" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N42" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
         </is>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
       <c r="B43" s="0" t="inlineStr">
@@ -2057,12 +1857,12 @@
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E43" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
@@ -2072,44 +1872,59 @@
       </c>
       <c r="K43" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Semanal</t>
         </is>
       </c>
       <c r="L43" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N43" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
         </is>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Prueba avances 001</t>
         </is>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>Variable 1</t>
+        </is>
+      </c>
+      <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="K44" s="0" t="inlineStr">
@@ -2119,39 +1934,54 @@
       </c>
       <c r="L44" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="N44" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>aaa</t>
         </is>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Prueba avances 001</t>
         </is>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E45" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
+        <is>
+          <t>Variable 2</t>
+        </is>
+      </c>
+      <c r="I45" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="K45" s="0" t="inlineStr">
@@ -2161,39 +1991,54 @@
       </c>
       <c r="L45" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="N45" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>aaa</t>
         </is>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Prueba avances 001</t>
         </is>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>Variable 3</t>
+        </is>
+      </c>
+      <c r="I46" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="K46" s="0" t="inlineStr">
@@ -2203,24 +2048,24 @@
       </c>
       <c r="L46" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="N46" s="0" t="inlineStr">
         <is>
-          <t>Prueba supuesto</t>
+          <t>aaa</t>
         </is>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>Actividad Completa</t>
+          <t>Prueba avances 001</t>
         </is>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="D47" s="0" t="inlineStr">
@@ -2230,44 +2075,49 @@
       </c>
       <c r="E47" s="0" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G47" s="0" t="inlineStr">
         <is>
-          <t>Nuevo A</t>
+          <t>Variable 4</t>
         </is>
       </c>
       <c r="I47" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J47" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="K47" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="L47" s="0" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="N47" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>aaa</t>
         </is>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>Actividad Completa</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B48" s="0" t="inlineStr">
@@ -2277,27 +2127,12 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="F48" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G48" s="0" t="inlineStr">
-        <is>
-          <t>Nuevo 2</t>
-        </is>
-      </c>
-      <c r="I48" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="J48" s="0" t="inlineStr">
@@ -2305,114 +2140,199 @@
           <t>100</t>
         </is>
       </c>
+      <c r="K48" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
       <c r="L48" s="0" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N48" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>Prueba nueva 123</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1 ACEstrategico</t>
+        </is>
+      </c>
+      <c r="J49" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K49" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L49" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="N49" s="0" t="inlineStr">
         <is>
-          <t>aaaaaa</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR 3</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 7</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1 ACEstrategico</t>
+        </is>
+      </c>
+      <c r="J50" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K50" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L50" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="N50" s="0" t="inlineStr">
         <is>
-          <t>aaaa</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>PRUEBA MIR 5</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 4</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Prueba resumen</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1 ACEstrategico</t>
+        </is>
+      </c>
+      <c r="J51" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K51" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L51" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="N51" s="0" t="inlineStr">
         <is>
-          <t>TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst vv</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR 4</t>
+          <t>Accion 1 test ACEstrategico</t>
         </is>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Prueba resumen</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1 ACEstrategico</t>
+        </is>
+      </c>
+      <c r="J52" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K52" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L52" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="N52" s="0" t="inlineStr">
         <is>
-          <t>ggg</t>
+          <t>Prueba supuesto</t>
         </is>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables</t>
+          <t>Actividad Completa</t>
         </is>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D53" s="0" t="inlineStr">
@@ -2422,7 +2342,7 @@
       </c>
       <c r="E53" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Prueba</t>
         </is>
       </c>
       <c r="F53" s="0" t="inlineStr">
@@ -2432,39 +2352,44 @@
       </c>
       <c r="G53" s="0" t="inlineStr">
         <is>
-          <t>Var1</t>
+          <t>Nuevo A</t>
         </is>
       </c>
       <c r="I53" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J53" s="0" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K53" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bimestral</t>
+        </is>
+      </c>
+      <c r="L53" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
         </is>
       </c>
       <c r="N53" s="0" t="inlineStr">
         <is>
-          <t>Este es un supuesto</t>
+          <t>Supuesto</t>
         </is>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables</t>
+          <t>Actividad Completa</t>
         </is>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D54" s="0" t="inlineStr">
@@ -2474,7 +2399,7 @@
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Prueba</t>
         </is>
       </c>
       <c r="F54" s="0" t="inlineStr">
@@ -2484,39 +2409,44 @@
       </c>
       <c r="G54" s="0" t="inlineStr">
         <is>
-          <t>Var2</t>
+          <t>Nuevo 2</t>
         </is>
       </c>
       <c r="I54" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J54" s="0" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K54" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bimestral</t>
+        </is>
+      </c>
+      <c r="L54" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
         </is>
       </c>
       <c r="N54" s="0" t="inlineStr">
         <is>
-          <t>Este es un supuesto</t>
+          <t>Supuesto</t>
         </is>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables</t>
+          <t>Prueba nueva 123</t>
         </is>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="D55" s="0" t="inlineStr">
@@ -2524,51 +2454,21 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E55" s="0" t="inlineStr">
-        <is>
-          <t>Indicador 1</t>
-        </is>
-      </c>
-      <c r="F55" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G55" s="0" t="inlineStr">
-        <is>
-          <t>Var3</t>
-        </is>
-      </c>
-      <c r="I55" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="J55" s="0" t="inlineStr">
-        <is>
-          <t>1323</t>
-        </is>
-      </c>
-      <c r="K55" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
       <c r="N55" s="0" t="inlineStr">
         <is>
-          <t>Este es un supuesto</t>
+          <t>aaaaaa</t>
         </is>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>Actividad Completa</t>
+          <t>Prueba MIR 3</t>
         </is>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 7</t>
         </is>
       </c>
       <c r="D56" s="0" t="inlineStr">
@@ -2576,140 +2476,65 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E56" s="0" t="inlineStr">
-        <is>
-          <t>Indicado 1</t>
-        </is>
-      </c>
-      <c r="I56" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J56" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="N56" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>aaaa</t>
         </is>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR 2</t>
+          <t>PRUEBA MIR 5</t>
         </is>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 4</t>
         </is>
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E57" s="0" t="inlineStr">
-        <is>
-          <t>Indicador de prueba Mir 2</t>
-        </is>
-      </c>
-      <c r="F57" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G57" s="0" t="inlineStr">
-        <is>
-          <t>Apoyos Alimentarios</t>
-        </is>
-      </c>
-      <c r="I57" s="0" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="J57" s="0" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="K57" s="0" t="inlineStr">
-        <is>
-          <t>Bienal</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N57" s="0" t="inlineStr">
         <is>
-          <t>qqqq</t>
+          <t>TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst TEst vv</t>
         </is>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR 2</t>
+          <t>Prueba MIR 4</t>
         </is>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 12</t>
         </is>
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E58" s="0" t="inlineStr">
-        <is>
-          <t>Indicador de prueba Mir 2</t>
-        </is>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G58" s="0" t="inlineStr">
-        <is>
-          <t>Apoyos en especie</t>
-        </is>
-      </c>
-      <c r="I58" s="0" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="J58" s="0" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="K58" s="0" t="inlineStr">
-        <is>
-          <t>Bienal</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N58" s="0" t="inlineStr">
         <is>
-          <t>qqqq</t>
+          <t>ggg</t>
         </is>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>Prueba Indicadores K</t>
+          <t>Prueba Calculo de Variables</t>
         </is>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Programa Presupuestario 5</t>
         </is>
       </c>
       <c r="D59" s="0" t="inlineStr">
@@ -2719,7 +2544,7 @@
       </c>
       <c r="E59" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="F59" s="0" t="inlineStr">
@@ -2729,17 +2554,17 @@
       </c>
       <c r="G59" s="0" t="inlineStr">
         <is>
-          <t>Variable test 1</t>
+          <t>Var1</t>
         </is>
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>12324</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
@@ -2749,19 +2574,19 @@
       </c>
       <c r="N59" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>Este es un supuesto</t>
         </is>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>Prueba Indicadores K</t>
+          <t>Prueba Calculo de Variables</t>
         </is>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Programa Presupuestario 5</t>
         </is>
       </c>
       <c r="D60" s="0" t="inlineStr">
@@ -2771,7 +2596,7 @@
       </c>
       <c r="E60" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="F60" s="0" t="inlineStr">
@@ -2781,17 +2606,17 @@
       </c>
       <c r="G60" s="0" t="inlineStr">
         <is>
-          <t>Variable test 2</t>
+          <t>Var2</t>
         </is>
       </c>
       <c r="I60" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>12324</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="K60" s="0" t="inlineStr">
@@ -2801,19 +2626,19 @@
       </c>
       <c r="N60" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>Este es un supuesto</t>
         </is>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="0" t="inlineStr">
         <is>
-          <t>Prueba Indicadores K</t>
+          <t>Prueba Calculo de Variables</t>
         </is>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Programa Presupuestario 5</t>
         </is>
       </c>
       <c r="D61" s="0" t="inlineStr">
@@ -2823,7 +2648,7 @@
       </c>
       <c r="E61" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="F61" s="0" t="inlineStr">
@@ -2833,17 +2658,17 @@
       </c>
       <c r="G61" s="0" t="inlineStr">
         <is>
-          <t>Variable test 3</t>
+          <t>Var3</t>
         </is>
       </c>
       <c r="I61" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>12324</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="K61" s="0" t="inlineStr">
@@ -2853,19 +2678,19 @@
       </c>
       <c r="N61" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>Este es un supuesto</t>
         </is>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Actividad Completa</t>
         </is>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D62" s="0" t="inlineStr">
@@ -2875,49 +2700,39 @@
       </c>
       <c r="E62" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
-        </is>
-      </c>
-      <c r="F62" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G62" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Indicado 1</t>
         </is>
       </c>
       <c r="I62" s="0" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K62" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Ciclo escolar</t>
         </is>
       </c>
       <c r="N62" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Supuesto</t>
         </is>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Prueba MIR 2</t>
         </is>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D63" s="0" t="inlineStr">
@@ -2927,49 +2742,49 @@
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador de prueba Mir 2</t>
         </is>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G63" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Apoyos Alimentarios</t>
         </is>
       </c>
       <c r="I63" s="0" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K63" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Bienal</t>
         </is>
       </c>
       <c r="N63" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qqqq</t>
         </is>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Prueba MIR 2</t>
         </is>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Programa Presupuestario 101</t>
         </is>
       </c>
       <c r="D64" s="0" t="inlineStr">
@@ -2979,49 +2794,49 @@
       </c>
       <c r="E64" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador de prueba Mir 2</t>
         </is>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G64" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Apoyos en especie</t>
         </is>
       </c>
       <c r="I64" s="0" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J64" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K64" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Bienal</t>
         </is>
       </c>
       <c r="N64" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qqqq</t>
         </is>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Prueba Indicadores K</t>
         </is>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="D65" s="0" t="inlineStr">
@@ -3031,49 +2846,49 @@
       </c>
       <c r="E65" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador 2</t>
         </is>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G65" s="0" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Variable test 1</t>
         </is>
       </c>
       <c r="I65" s="0" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J65" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>12324</t>
         </is>
       </c>
       <c r="K65" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="N65" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>aasdfdfgh</t>
         </is>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Prueba Indicadores K</t>
         </is>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="D66" s="0" t="inlineStr">
@@ -3083,49 +2898,49 @@
       </c>
       <c r="E66" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador 2</t>
         </is>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G66" s="0" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Variable test 2</t>
         </is>
       </c>
       <c r="I66" s="0" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J66" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>12324</t>
         </is>
       </c>
       <c r="K66" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="N66" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>aasdfdfgh</t>
         </is>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Prueba Indicadores K</t>
         </is>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="D67" s="0" t="inlineStr">
@@ -3135,49 +2950,49 @@
       </c>
       <c r="E67" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador 2</t>
         </is>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G67" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Variable test 3</t>
         </is>
       </c>
       <c r="I67" s="0" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J67" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>12324</t>
         </is>
       </c>
       <c r="K67" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="N67" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>aasdfdfgh</t>
         </is>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR</t>
+          <t>Prueba Calculo de Variables 2|</t>
         </is>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Programa Presupuestario 12</t>
         </is>
       </c>
       <c r="D68" s="0" t="inlineStr">
@@ -3190,31 +3005,46 @@
           <t>Indicador 1</t>
         </is>
       </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G68" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I68" s="0" t="inlineStr">
+        <is>
+          <t>1244</t>
+        </is>
+      </c>
       <c r="J68" s="0" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="K68" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bianual</t>
         </is>
       </c>
       <c r="N68" s="0" t="inlineStr">
         <is>
-          <t>aaaa</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Prueba Calculo de Variables 2|</t>
         </is>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 12</t>
         </is>
       </c>
       <c r="D69" s="0" t="inlineStr">
@@ -3224,62 +3054,359 @@
       </c>
       <c r="E69" s="0" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G69" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I69" s="0" t="inlineStr">
+        <is>
+          <t>1244</t>
         </is>
       </c>
       <c r="J69" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="K69" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bianual</t>
         </is>
       </c>
       <c r="N69" s="0" t="inlineStr">
         <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="0" t="inlineStr">
         <is>
+          <t>Prueba Calculo de Variables 2|</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 12</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G70" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I70" s="0" t="inlineStr">
+        <is>
+          <t>1244</t>
+        </is>
+      </c>
+      <c r="J70" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="K70" s="0" t="inlineStr">
+        <is>
+          <t>Bianual</t>
+        </is>
+      </c>
+      <c r="N70" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>Prueba Calculo de Variables 2|</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 12</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="F71" s="0" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G71" s="0" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I71" s="0" t="inlineStr">
+        <is>
+          <t>1244</t>
+        </is>
+      </c>
+      <c r="J71" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="K71" s="0" t="inlineStr">
+        <is>
+          <t>Bianual</t>
+        </is>
+      </c>
+      <c r="N71" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Prueba Calculo de Variables 2|</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 12</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G72" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I72" s="0" t="inlineStr">
+        <is>
+          <t>1244</t>
+        </is>
+      </c>
+      <c r="J72" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="K72" s="0" t="inlineStr">
+        <is>
+          <t>Bianual</t>
+        </is>
+      </c>
+      <c r="N72" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Prueba Calculo de Variables 2|</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 12</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G73" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I73" s="0" t="inlineStr">
+        <is>
+          <t>1244</t>
+        </is>
+      </c>
+      <c r="J73" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="K73" s="0" t="inlineStr">
+        <is>
+          <t>Bianual</t>
+        </is>
+      </c>
+      <c r="N73" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>Prueba MIR</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="J74" s="0" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="K74" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="N74" s="0" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 101</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="J75" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K75" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="N75" s="0" t="inlineStr">
+        <is>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
           <t>Prueba Indicadores K</t>
         </is>
       </c>
-      <c r="B70" s="0" t="inlineStr">
+      <c r="B76" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 1</t>
         </is>
       </c>
-      <c r="D70" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E70" s="0" t="inlineStr">
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
         <is>
           <t>Indicador 1</t>
         </is>
       </c>
-      <c r="I70" s="0" t="inlineStr">
+      <c r="I76" s="0" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="J70" s="0" t="inlineStr">
+      <c r="J76" s="0" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="K70" s="0" t="inlineStr">
+      <c r="K76" s="0" t="inlineStr">
         <is>
           <t>Diario</t>
         </is>
       </c>
-      <c r="N70" s="0" t="inlineStr">
+      <c r="N76" s="0" t="inlineStr">
         <is>
           <t>aasdfdfgh</t>
         </is>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -104,7 +104,7 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>REPORTE CLINICA</t>
+          <t>REPORTE AVANCE MIR</t>
         </is>
       </c>
     </row>
@@ -122,7 +122,7 @@
         </is>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Eje</t>
@@ -134,6 +134,11 @@
 </t>
         </is>
       </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Porcentaje: 47%</t>
+        </is>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
@@ -143,7 +148,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>06-17-2022 08:23:18 am</t>
+          <t>06-17-2022 12:35:01 pm</t>
         </is>
       </c>
     </row>
@@ -237,14 +242,9 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>Actividad Completa</t>
-        </is>
-      </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -274,7 +274,7 @@
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
@@ -284,7 +284,12 @@
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
         </is>
       </c>
       <c r="N9" s="0" t="inlineStr">
@@ -294,14 +299,9 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>Actividad Completa</t>
-        </is>
-      </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
@@ -331,7 +331,7 @@
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
@@ -341,7 +341,12 @@
       </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
         </is>
       </c>
       <c r="N10" s="0" t="inlineStr">
@@ -353,12 +358,12 @@
     <row r="11" spans="1:14">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 3</t>
+          <t>Educación</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
@@ -388,7 +393,7 @@
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
@@ -398,7 +403,12 @@
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>5000%</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>Medio de verificacion test</t>
         </is>
       </c>
       <c r="N11" s="0" t="inlineStr">
@@ -410,12 +420,12 @@
     <row r="12" spans="1:14">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 3</t>
+          <t>Educación</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
@@ -445,7 +455,7 @@
       </c>
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K12" s="0" t="inlineStr">
@@ -455,7 +465,12 @@
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>5000%</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>Medio de verificacion test</t>
         </is>
       </c>
       <c r="N12" s="0" t="inlineStr">
@@ -467,12 +482,12 @@
     <row r="13" spans="1:14">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 3</t>
+          <t>Educación</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
@@ -502,7 +517,7 @@
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K13" s="0" t="inlineStr">
@@ -512,7 +527,12 @@
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>5000%</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>Medio de verificacion test</t>
         </is>
       </c>
       <c r="N13" s="0" t="inlineStr">
@@ -524,12 +544,12 @@
     <row r="14" spans="1:14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
@@ -544,7 +564,7 @@
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr">
@@ -554,7 +574,7 @@
       </c>
       <c r="L14" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N14" s="0" t="inlineStr">
@@ -566,12 +586,12 @@
     <row r="15" spans="1:14">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
@@ -586,7 +606,7 @@
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K15" s="0" t="inlineStr">
@@ -596,7 +616,7 @@
       </c>
       <c r="L15" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="N15" s="0" t="inlineStr">
@@ -608,12 +628,12 @@
     <row r="16" spans="1:14">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -628,7 +648,7 @@
       </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr">
@@ -638,7 +658,7 @@
       </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N16" s="0" t="inlineStr">
@@ -650,12 +670,12 @@
     <row r="17" spans="1:14">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -670,7 +690,7 @@
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr">
@@ -680,7 +700,7 @@
       </c>
       <c r="L17" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N17" s="0" t="inlineStr">
@@ -692,12 +712,12 @@
     <row r="18" spans="1:14">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -712,7 +732,7 @@
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
@@ -722,7 +742,7 @@
       </c>
       <c r="L18" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N18" s="0" t="inlineStr">
@@ -734,12 +754,12 @@
     <row r="19" spans="1:14">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
@@ -754,7 +774,7 @@
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
@@ -764,7 +784,7 @@
       </c>
       <c r="L19" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N19" s="0" t="inlineStr">
@@ -774,14 +794,9 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>Actividad Completa</t>
-        </is>
-      </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
@@ -811,7 +826,7 @@
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
@@ -821,7 +836,12 @@
       </c>
       <c r="L20" s="0" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
         </is>
       </c>
       <c r="N20" s="0" t="inlineStr">
@@ -831,14 +851,9 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>Actividad Completa</t>
-        </is>
-      </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
@@ -868,7 +883,7 @@
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
@@ -878,7 +893,12 @@
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
         </is>
       </c>
       <c r="N21" s="0" t="inlineStr">
@@ -890,12 +910,12 @@
     <row r="22" spans="1:14">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
@@ -910,7 +930,7 @@
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr">
@@ -920,7 +940,7 @@
       </c>
       <c r="L22" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N22" s="0" t="inlineStr">
@@ -932,12 +952,12 @@
     <row r="23" spans="1:14">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
@@ -952,7 +972,7 @@
       </c>
       <c r="J23" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K23" s="0" t="inlineStr">
@@ -962,7 +982,7 @@
       </c>
       <c r="L23" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="N23" s="0" t="inlineStr">
@@ -974,12 +994,12 @@
     <row r="24" spans="1:14">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
@@ -994,7 +1014,7 @@
       </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr">
@@ -1004,7 +1024,7 @@
       </c>
       <c r="L24" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N24" s="0" t="inlineStr">
@@ -1016,12 +1036,12 @@
     <row r="25" spans="1:14">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
@@ -1036,7 +1056,7 @@
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr">
@@ -1046,7 +1066,7 @@
       </c>
       <c r="L25" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N25" s="0" t="inlineStr">
@@ -1058,12 +1078,12 @@
     <row r="26" spans="1:14">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
@@ -1078,7 +1098,7 @@
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
@@ -1088,7 +1108,7 @@
       </c>
       <c r="L26" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N26" s="0" t="inlineStr">
@@ -1100,12 +1120,12 @@
     <row r="27" spans="1:14">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
@@ -1120,7 +1140,7 @@
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K27" s="0" t="inlineStr">
@@ -1130,7 +1150,7 @@
       </c>
       <c r="L27" s="0" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="N27" s="0" t="inlineStr">
@@ -1142,12 +1162,12 @@
     <row r="28" spans="1:14">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
@@ -1162,7 +1182,7 @@
       </c>
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K28" s="0" t="inlineStr">
@@ -1172,7 +1192,7 @@
       </c>
       <c r="L28" s="0" t="inlineStr">
         <is>
-          <t>12312</t>
+          <t>12312%</t>
         </is>
       </c>
       <c r="N28" s="0" t="inlineStr">
@@ -1182,14 +1202,9 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t>Actividad Completa</t>
-        </is>
-      </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
@@ -1219,7 +1234,7 @@
       </c>
       <c r="J29" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K29" s="0" t="inlineStr">
@@ -1229,7 +1244,12 @@
       </c>
       <c r="L29" s="0" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1000%</t>
+        </is>
+      </c>
+      <c r="M29" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
         </is>
       </c>
       <c r="N29" s="0" t="inlineStr">
@@ -1239,14 +1259,9 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>Actividad Completa</t>
-        </is>
-      </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
@@ -1276,7 +1291,7 @@
       </c>
       <c r="J30" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K30" s="0" t="inlineStr">
@@ -1286,7 +1301,12 @@
       </c>
       <c r="L30" s="0" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1000%</t>
+        </is>
+      </c>
+      <c r="M30" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
         </is>
       </c>
       <c r="N30" s="0" t="inlineStr">
@@ -1298,52 +1318,57 @@
     <row r="31" spans="1:14">
       <c r="A31" s="0" t="inlineStr">
         <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Promoción de Sectores Ecónomicos</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Indicador Prueba Reportes 001</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>5000%</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>1500%</t>
+        </is>
+      </c>
+      <c r="M31" s="0" t="inlineStr">
+        <is>
           <t>Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 9</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>Indicador Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I31" s="0" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="J31" s="0" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="K31" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="L31" s="0" t="inlineStr">
-        <is>
-          <t>1500</t>
         </is>
       </c>
       <c r="N31" s="0" t="inlineStr">
@@ -1355,52 +1380,57 @@
     <row r="32" spans="1:14">
       <c r="A32" s="0" t="inlineStr">
         <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Promoción de Sectores Ecónomicos</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>Indicador Prueba Reportes 001</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>5000%</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>1500%</t>
+        </is>
+      </c>
+      <c r="M32" s="0" t="inlineStr">
+        <is>
           <t>Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 9</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E32" s="0" t="inlineStr">
-        <is>
-          <t>Indicador Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G32" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I32" s="0" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="J32" s="0" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="K32" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="L32" s="0" t="inlineStr">
-        <is>
-          <t>1500</t>
         </is>
       </c>
       <c r="N32" s="0" t="inlineStr">
@@ -1412,52 +1442,57 @@
     <row r="33" spans="1:14">
       <c r="A33" s="0" t="inlineStr">
         <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Promoción de Sectores Ecónomicos</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>Indicador Prueba Reportes 001</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>5000%</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L33" s="0" t="inlineStr">
+        <is>
+          <t>1500%</t>
+        </is>
+      </c>
+      <c r="M33" s="0" t="inlineStr">
+        <is>
           <t>Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 9</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E33" s="0" t="inlineStr">
-        <is>
-          <t>Indicador Prueba Reportes 001</t>
-        </is>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G33" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I33" s="0" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="J33" s="0" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="K33" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="L33" s="0" t="inlineStr">
-        <is>
-          <t>1500</t>
         </is>
       </c>
       <c r="N33" s="0" t="inlineStr">
@@ -1469,12 +1504,12 @@
     <row r="34" spans="1:14">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
@@ -1489,7 +1524,7 @@
       </c>
       <c r="J34" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K34" s="0" t="inlineStr">
@@ -1499,7 +1534,7 @@
       </c>
       <c r="L34" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N34" s="0" t="inlineStr">
@@ -1511,12 +1546,12 @@
     <row r="35" spans="1:14">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D35" s="0" t="inlineStr">
@@ -1531,7 +1566,7 @@
       </c>
       <c r="J35" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K35" s="0" t="inlineStr">
@@ -1541,7 +1576,7 @@
       </c>
       <c r="L35" s="0" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>1234%</t>
         </is>
       </c>
       <c r="N35" s="0" t="inlineStr">
@@ -1553,12 +1588,12 @@
     <row r="36" spans="1:14">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D36" s="0" t="inlineStr">
@@ -1573,7 +1608,7 @@
       </c>
       <c r="J36" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K36" s="0" t="inlineStr">
@@ -1583,7 +1618,7 @@
       </c>
       <c r="L36" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="N36" s="0" t="inlineStr">
@@ -1595,12 +1630,12 @@
     <row r="37" spans="1:14">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D37" s="0" t="inlineStr">
@@ -1615,7 +1650,7 @@
       </c>
       <c r="J37" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K37" s="0" t="inlineStr">
@@ -1625,7 +1660,7 @@
       </c>
       <c r="L37" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N37" s="0" t="inlineStr">
@@ -1637,12 +1672,12 @@
     <row r="38" spans="1:14">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D38" s="0" t="inlineStr">
@@ -1657,7 +1692,7 @@
       </c>
       <c r="J38" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K38" s="0" t="inlineStr">
@@ -1667,7 +1702,7 @@
       </c>
       <c r="L38" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N38" s="0" t="inlineStr">
@@ -1679,12 +1714,12 @@
     <row r="39" spans="1:14">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D39" s="0" t="inlineStr">
@@ -1699,7 +1734,7 @@
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K39" s="0" t="inlineStr">
@@ -1709,7 +1744,7 @@
       </c>
       <c r="L39" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>123%</t>
         </is>
       </c>
       <c r="N39" s="0" t="inlineStr">
@@ -1721,12 +1756,12 @@
     <row r="40" spans="1:14">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D40" s="0" t="inlineStr">
@@ -1741,7 +1776,7 @@
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K40" s="0" t="inlineStr">
@@ -1751,7 +1786,7 @@
       </c>
       <c r="L40" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N40" s="0" t="inlineStr">
@@ -1763,12 +1798,12 @@
     <row r="41" spans="1:14">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D41" s="0" t="inlineStr">
@@ -1783,7 +1818,7 @@
       </c>
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K41" s="0" t="inlineStr">
@@ -1793,7 +1828,7 @@
       </c>
       <c r="L41" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N41" s="0" t="inlineStr">
@@ -1805,12 +1840,12 @@
     <row r="42" spans="1:14">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D42" s="0" t="inlineStr">
@@ -1825,7 +1860,7 @@
       </c>
       <c r="J42" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K42" s="0" t="inlineStr">
@@ -1835,7 +1870,7 @@
       </c>
       <c r="L42" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="N42" s="0" t="inlineStr">
@@ -1847,12 +1882,12 @@
     <row r="43" spans="1:14">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D43" s="0" t="inlineStr">
@@ -1867,7 +1902,7 @@
       </c>
       <c r="J43" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K43" s="0" t="inlineStr">
@@ -1877,7 +1912,7 @@
       </c>
       <c r="L43" s="0" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1000%</t>
         </is>
       </c>
       <c r="N43" s="0" t="inlineStr">
@@ -1889,12 +1924,12 @@
     <row r="44" spans="1:14">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>Prueba avances 001</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D44" s="0" t="inlineStr">
@@ -1924,7 +1959,7 @@
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>5000%</t>
         </is>
       </c>
       <c r="K44" s="0" t="inlineStr">
@@ -1934,7 +1969,12 @@
       </c>
       <c r="L44" s="0" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>4000%</t>
+        </is>
+      </c>
+      <c r="M44" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
         </is>
       </c>
       <c r="N44" s="0" t="inlineStr">
@@ -1946,12 +1986,12 @@
     <row r="45" spans="1:14">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>Prueba avances 001</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D45" s="0" t="inlineStr">
@@ -1981,7 +2021,7 @@
       </c>
       <c r="J45" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>5000%</t>
         </is>
       </c>
       <c r="K45" s="0" t="inlineStr">
@@ -1991,7 +2031,12 @@
       </c>
       <c r="L45" s="0" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>4000%</t>
+        </is>
+      </c>
+      <c r="M45" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
         </is>
       </c>
       <c r="N45" s="0" t="inlineStr">
@@ -2003,12 +2048,12 @@
     <row r="46" spans="1:14">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>Prueba avances 001</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D46" s="0" t="inlineStr">
@@ -2038,7 +2083,7 @@
       </c>
       <c r="J46" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>5000%</t>
         </is>
       </c>
       <c r="K46" s="0" t="inlineStr">
@@ -2048,7 +2093,12 @@
       </c>
       <c r="L46" s="0" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>4000%</t>
+        </is>
+      </c>
+      <c r="M46" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
         </is>
       </c>
       <c r="N46" s="0" t="inlineStr">
@@ -2060,12 +2110,12 @@
     <row r="47" spans="1:14">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>Prueba avances 001</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D47" s="0" t="inlineStr">
@@ -2095,7 +2145,7 @@
       </c>
       <c r="J47" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>5000%</t>
         </is>
       </c>
       <c r="K47" s="0" t="inlineStr">
@@ -2105,7 +2155,12 @@
       </c>
       <c r="L47" s="0" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>4000%</t>
+        </is>
+      </c>
+      <c r="M47" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
         </is>
       </c>
       <c r="N47" s="0" t="inlineStr">
@@ -2117,12 +2172,12 @@
     <row r="48" spans="1:14">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D48" s="0" t="inlineStr">
@@ -2137,7 +2192,7 @@
       </c>
       <c r="J48" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K48" s="0" t="inlineStr">
@@ -2147,7 +2202,7 @@
       </c>
       <c r="L48" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N48" s="0" t="inlineStr">
@@ -2159,12 +2214,12 @@
     <row r="49" spans="1:14">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D49" s="0" t="inlineStr">
@@ -2179,7 +2234,7 @@
       </c>
       <c r="J49" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K49" s="0" t="inlineStr">
@@ -2189,7 +2244,7 @@
       </c>
       <c r="L49" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N49" s="0" t="inlineStr">
@@ -2201,12 +2256,12 @@
     <row r="50" spans="1:14">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D50" s="0" t="inlineStr">
@@ -2221,7 +2276,7 @@
       </c>
       <c r="J50" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K50" s="0" t="inlineStr">
@@ -2231,7 +2286,7 @@
       </c>
       <c r="L50" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N50" s="0" t="inlineStr">
@@ -2243,12 +2298,12 @@
     <row r="51" spans="1:14">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D51" s="0" t="inlineStr">
@@ -2263,7 +2318,7 @@
       </c>
       <c r="J51" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K51" s="0" t="inlineStr">
@@ -2273,7 +2328,7 @@
       </c>
       <c r="L51" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N51" s="0" t="inlineStr">
@@ -2285,12 +2340,12 @@
     <row r="52" spans="1:14">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>Accion 1 test ACEstrategico</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D52" s="0" t="inlineStr">
@@ -2305,7 +2360,7 @@
       </c>
       <c r="J52" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K52" s="0" t="inlineStr">
@@ -2315,7 +2370,7 @@
       </c>
       <c r="L52" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="N52" s="0" t="inlineStr">
@@ -2325,14 +2380,9 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="0" t="inlineStr">
-        <is>
-          <t>Actividad Completa</t>
-        </is>
-      </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D53" s="0" t="inlineStr">
@@ -2362,7 +2412,7 @@
       </c>
       <c r="J53" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K53" s="0" t="inlineStr">
@@ -2372,7 +2422,12 @@
       </c>
       <c r="L53" s="0" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>200%</t>
+        </is>
+      </c>
+      <c r="M53" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
         </is>
       </c>
       <c r="N53" s="0" t="inlineStr">
@@ -2382,14 +2437,9 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="0" t="inlineStr">
-        <is>
-          <t>Actividad Completa</t>
-        </is>
-      </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D54" s="0" t="inlineStr">
@@ -2419,7 +2469,7 @@
       </c>
       <c r="J54" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K54" s="0" t="inlineStr">
@@ -2429,7 +2479,12 @@
       </c>
       <c r="L54" s="0" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>200%</t>
+        </is>
+      </c>
+      <c r="M54" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
         </is>
       </c>
       <c r="N54" s="0" t="inlineStr">
@@ -2441,17 +2496,27 @@
     <row r="55" spans="1:14">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>Prueba nueva 123</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="J55" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L55" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
         </is>
       </c>
       <c r="N55" s="0" t="inlineStr">
@@ -2463,39 +2528,59 @@
     <row r="56" spans="1:14">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR 3</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 7</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J56" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L56" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
         </is>
       </c>
       <c r="N56" s="0" t="inlineStr">
         <is>
-          <t>aaaa</t>
+          <t>ggg</t>
         </is>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>PRUEBA MIR 5</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 4</t>
+          <t>Cultura</t>
         </is>
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="J57" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L57" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
         </is>
       </c>
       <c r="N57" s="0" t="inlineStr">
@@ -2507,34 +2592,44 @@
     <row r="58" spans="1:14">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR 4</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Desarrollo Económico</t>
         </is>
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L58" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
         </is>
       </c>
       <c r="N58" s="0" t="inlineStr">
         <is>
-          <t>ggg</t>
+          <t>aaaa</t>
         </is>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables</t>
+          <t>Estrategia</t>
         </is>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D59" s="0" t="inlineStr">
@@ -2544,7 +2639,7 @@
       </c>
       <c r="E59" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador de prueba Mir 2</t>
         </is>
       </c>
       <c r="F59" s="0" t="inlineStr">
@@ -2554,39 +2649,49 @@
       </c>
       <c r="G59" s="0" t="inlineStr">
         <is>
-          <t>Var1</t>
+          <t>Apoyos Alimentarios</t>
         </is>
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bienal</t>
+        </is>
+      </c>
+      <c r="L59" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M59" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="N59" s="0" t="inlineStr">
         <is>
-          <t>Este es un supuesto</t>
+          <t>qqqq</t>
         </is>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables</t>
+          <t>Estrategia</t>
         </is>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D60" s="0" t="inlineStr">
@@ -2596,7 +2701,7 @@
       </c>
       <c r="E60" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador de prueba Mir 2</t>
         </is>
       </c>
       <c r="F60" s="0" t="inlineStr">
@@ -2606,39 +2711,49 @@
       </c>
       <c r="G60" s="0" t="inlineStr">
         <is>
-          <t>Var2</t>
+          <t>Apoyos en especie</t>
         </is>
       </c>
       <c r="I60" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="K60" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bienal</t>
+        </is>
+      </c>
+      <c r="L60" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M60" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="N60" s="0" t="inlineStr">
         <is>
-          <t>Este es un supuesto</t>
+          <t>qqqq</t>
         </is>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D61" s="0" t="inlineStr">
@@ -2648,27 +2763,27 @@
       </c>
       <c r="E61" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador 2</t>
         </is>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G61" s="0" t="inlineStr">
         <is>
-          <t>Var3</t>
+          <t>Variable test 1</t>
         </is>
       </c>
       <c r="I61" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>12324%</t>
         </is>
       </c>
       <c r="K61" s="0" t="inlineStr">
@@ -2676,21 +2791,31 @@
           <t>Mensual</t>
         </is>
       </c>
+      <c r="L61" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M61" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
       <c r="N61" s="0" t="inlineStr">
         <is>
-          <t>Este es un supuesto</t>
+          <t>aasdfdfgh</t>
         </is>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="0" t="inlineStr">
         <is>
-          <t>Actividad Completa</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D62" s="0" t="inlineStr">
@@ -2700,39 +2825,59 @@
       </c>
       <c r="E62" s="0" t="inlineStr">
         <is>
-          <t>Indicado 1</t>
+          <t>Indicador 2</t>
+        </is>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G62" s="0" t="inlineStr">
+        <is>
+          <t>Variable test 2</t>
         </is>
       </c>
       <c r="I62" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>12324%</t>
         </is>
       </c>
       <c r="K62" s="0" t="inlineStr">
         <is>
-          <t>Ciclo escolar</t>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L62" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M62" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
         </is>
       </c>
       <c r="N62" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>aasdfdfgh</t>
         </is>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR 2</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D63" s="0" t="inlineStr">
@@ -2742,49 +2887,59 @@
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
-          <t>Indicador de prueba Mir 2</t>
+          <t>Indicador 2</t>
         </is>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G63" s="0" t="inlineStr">
         <is>
-          <t>Apoyos Alimentarios</t>
+          <t>Variable test 3</t>
         </is>
       </c>
       <c r="I63" s="0" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>12324%</t>
         </is>
       </c>
       <c r="K63" s="0" t="inlineStr">
         <is>
-          <t>Bienal</t>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L63" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M63" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
         </is>
       </c>
       <c r="N63" s="0" t="inlineStr">
         <is>
-          <t>qqqq</t>
+          <t>aasdfdfgh</t>
         </is>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR 2</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D64" s="0" t="inlineStr">
@@ -2794,49 +2949,59 @@
       </c>
       <c r="E64" s="0" t="inlineStr">
         <is>
-          <t>Indicador de prueba Mir 2</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G64" s="0" t="inlineStr">
         <is>
-          <t>Apoyos en especie</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I64" s="0" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="J64" s="0" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>5000%</t>
         </is>
       </c>
       <c r="K64" s="0" t="inlineStr">
         <is>
-          <t>Bienal</t>
+          <t>Bianual</t>
+        </is>
+      </c>
+      <c r="L64" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M64" s="0" t="inlineStr">
+        <is>
+          <t>AAA</t>
         </is>
       </c>
       <c r="N64" s="0" t="inlineStr">
         <is>
-          <t>qqqq</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="0" t="inlineStr">
         <is>
-          <t>Prueba Indicadores K</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D65" s="0" t="inlineStr">
@@ -2846,49 +3011,59 @@
       </c>
       <c r="E65" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G65" s="0" t="inlineStr">
         <is>
-          <t>Variable test 1</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I65" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="J65" s="0" t="inlineStr">
         <is>
-          <t>12324</t>
+          <t>5000%</t>
         </is>
       </c>
       <c r="K65" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bianual</t>
+        </is>
+      </c>
+      <c r="L65" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M65" s="0" t="inlineStr">
+        <is>
+          <t>AAA</t>
         </is>
       </c>
       <c r="N65" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="0" t="inlineStr">
         <is>
-          <t>Prueba Indicadores K</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D66" s="0" t="inlineStr">
@@ -2898,49 +3073,59 @@
       </c>
       <c r="E66" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G66" s="0" t="inlineStr">
         <is>
-          <t>Variable test 2</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I66" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="J66" s="0" t="inlineStr">
         <is>
-          <t>12324</t>
+          <t>5000%</t>
         </is>
       </c>
       <c r="K66" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bianual</t>
+        </is>
+      </c>
+      <c r="L66" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M66" s="0" t="inlineStr">
+        <is>
+          <t>AAA</t>
         </is>
       </c>
       <c r="N66" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="0" t="inlineStr">
         <is>
-          <t>Prueba Indicadores K</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D67" s="0" t="inlineStr">
@@ -2950,49 +3135,59 @@
       </c>
       <c r="E67" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G67" s="0" t="inlineStr">
         <is>
-          <t>Variable test 3</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I67" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="J67" s="0" t="inlineStr">
         <is>
-          <t>12324</t>
+          <t>5000%</t>
         </is>
       </c>
       <c r="K67" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bianual</t>
+        </is>
+      </c>
+      <c r="L67" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M67" s="0" t="inlineStr">
+        <is>
+          <t>AAA</t>
         </is>
       </c>
       <c r="N67" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D68" s="0" t="inlineStr">
@@ -3007,12 +3202,12 @@
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G68" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I68" s="0" t="inlineStr">
@@ -3022,12 +3217,22 @@
       </c>
       <c r="J68" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>5000%</t>
         </is>
       </c>
       <c r="K68" s="0" t="inlineStr">
         <is>
           <t>Bianual</t>
+        </is>
+      </c>
+      <c r="L68" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M68" s="0" t="inlineStr">
+        <is>
+          <t>AAA</t>
         </is>
       </c>
       <c r="N68" s="0" t="inlineStr">
@@ -3039,12 +3244,12 @@
     <row r="69" spans="1:14">
       <c r="A69" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D69" s="0" t="inlineStr">
@@ -3059,12 +3264,12 @@
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G69" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I69" s="0" t="inlineStr">
@@ -3074,12 +3279,22 @@
       </c>
       <c r="J69" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>5000%</t>
         </is>
       </c>
       <c r="K69" s="0" t="inlineStr">
         <is>
           <t>Bianual</t>
+        </is>
+      </c>
+      <c r="L69" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M69" s="0" t="inlineStr">
+        <is>
+          <t>AAA</t>
         </is>
       </c>
       <c r="N69" s="0" t="inlineStr">
@@ -3091,12 +3306,12 @@
     <row r="70" spans="1:14">
       <c r="A70" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D70" s="0" t="inlineStr">
@@ -3109,46 +3324,36 @@
           <t>Indicador 1</t>
         </is>
       </c>
-      <c r="F70" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G70" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I70" s="0" t="inlineStr">
-        <is>
-          <t>1244</t>
-        </is>
-      </c>
       <c r="J70" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1000%</t>
         </is>
       </c>
       <c r="K70" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L70" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
         </is>
       </c>
       <c r="N70" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>aaaa</t>
         </is>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D71" s="0" t="inlineStr">
@@ -3158,49 +3363,39 @@
       </c>
       <c r="E71" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
-        </is>
-      </c>
-      <c r="F71" s="0" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G71" s="0" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I71" s="0" t="inlineStr">
-        <is>
-          <t>1244</t>
+          <t>Prueba</t>
         </is>
       </c>
       <c r="J71" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K71" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L71" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
         </is>
       </c>
       <c r="N71" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
         </is>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Deporte</t>
         </is>
       </c>
       <c r="D72" s="0" t="inlineStr">
@@ -3215,44 +3410,54 @@
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G72" s="0" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Var1</t>
         </is>
       </c>
       <c r="I72" s="0" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J72" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1323%</t>
         </is>
       </c>
       <c r="K72" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L72" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M72" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
         </is>
       </c>
       <c r="N72" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Este es un supuesto</t>
         </is>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Deporte</t>
         </is>
       </c>
       <c r="D73" s="0" t="inlineStr">
@@ -3267,44 +3472,54 @@
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G73" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Var2</t>
         </is>
       </c>
       <c r="I73" s="0" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J73" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1323%</t>
         </is>
       </c>
       <c r="K73" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="L73" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M73" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
         </is>
       </c>
       <c r="N73" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Este es un supuesto</t>
         </is>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Deporte</t>
         </is>
       </c>
       <c r="D74" s="0" t="inlineStr">
@@ -3317,9 +3532,24 @@
           <t>Indicador 1</t>
         </is>
       </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G74" s="0" t="inlineStr">
+        <is>
+          <t>Var3</t>
+        </is>
+      </c>
+      <c r="I74" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
       <c r="J74" s="0" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1323%</t>
         </is>
       </c>
       <c r="K74" s="0" t="inlineStr">
@@ -3327,21 +3557,31 @@
           <t>Mensual</t>
         </is>
       </c>
+      <c r="L74" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M74" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
       <c r="N74" s="0" t="inlineStr">
         <is>
-          <t>aaaa</t>
+          <t>Este es un supuesto</t>
         </is>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D75" s="0" t="inlineStr">
@@ -3351,34 +3591,44 @@
       </c>
       <c r="E75" s="0" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="I75" s="0" t="inlineStr">
+        <is>
+          <t>111</t>
         </is>
       </c>
       <c r="J75" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>1234%</t>
         </is>
       </c>
       <c r="K75" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="L75" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M75" s="0" t="inlineStr">
+        <is>
+          <t>adada</t>
         </is>
       </c>
       <c r="N75" s="0" t="inlineStr">
         <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
+          <t>aasdfdfgh</t>
         </is>
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="0" t="inlineStr">
-        <is>
-          <t>Prueba Indicadores K</t>
-        </is>
-      </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D76" s="0" t="inlineStr">
@@ -3388,27 +3638,37 @@
       </c>
       <c r="E76" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicado 1</t>
         </is>
       </c>
       <c r="I76" s="0" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J76" s="0" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K76" s="0" t="inlineStr">
         <is>
-          <t>Diario</t>
+          <t>Ciclo escolar</t>
+        </is>
+      </c>
+      <c r="L76" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M76" s="0" t="inlineStr">
+        <is>
+          <t>asd</t>
         </is>
       </c>
       <c r="N76" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>Supuesto</t>
         </is>
       </c>
     </row>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -143,7 +143,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>06-17-2022 08:23:18 am</t>
+          <t>06-17-2022 11:47:40 am</t>
         </is>
       </c>
     </row>
@@ -244,7 +244,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -275,11 +275,6 @@
       <c r="J9" s="0" t="inlineStr">
         <is>
           <t>100</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>Bimestral</t>
         </is>
       </c>
       <c r="L9" s="0" t="inlineStr">
@@ -301,7 +296,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
@@ -332,11 +327,6 @@
       <c r="J10" s="0" t="inlineStr">
         <is>
           <t>100</t>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t>Bimestral</t>
         </is>
       </c>
       <c r="L10" s="0" t="inlineStr">
@@ -358,7 +348,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 3</t>
+          <t>Educación</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
@@ -415,7 +405,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 3</t>
+          <t>Educación</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
@@ -472,7 +462,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 3</t>
+          <t>Educación</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
@@ -529,7 +519,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
@@ -571,7 +561,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
@@ -613,7 +603,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -655,7 +645,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -697,7 +687,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -739,7 +729,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
@@ -781,7 +771,7 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
@@ -812,11 +802,6 @@
       <c r="J20" s="0" t="inlineStr">
         <is>
           <t>100</t>
-        </is>
-      </c>
-      <c r="K20" s="0" t="inlineStr">
-        <is>
-          <t>Bimestral</t>
         </is>
       </c>
       <c r="L20" s="0" t="inlineStr">
@@ -838,7 +823,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
@@ -869,11 +854,6 @@
       <c r="J21" s="0" t="inlineStr">
         <is>
           <t>100</t>
-        </is>
-      </c>
-      <c r="K21" s="0" t="inlineStr">
-        <is>
-          <t>Bimestral</t>
         </is>
       </c>
       <c r="L21" s="0" t="inlineStr">
@@ -895,7 +875,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
@@ -937,7 +917,7 @@
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
@@ -979,7 +959,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
@@ -1021,7 +1001,7 @@
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
@@ -1063,7 +1043,7 @@
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
@@ -1105,7 +1085,7 @@
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
@@ -1147,7 +1127,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
@@ -1189,7 +1169,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
@@ -1220,11 +1200,6 @@
       <c r="J29" s="0" t="inlineStr">
         <is>
           <t>100</t>
-        </is>
-      </c>
-      <c r="K29" s="0" t="inlineStr">
-        <is>
-          <t>Bimestral</t>
         </is>
       </c>
       <c r="L29" s="0" t="inlineStr">
@@ -1246,7 +1221,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
@@ -1277,11 +1252,6 @@
       <c r="J30" s="0" t="inlineStr">
         <is>
           <t>100</t>
-        </is>
-      </c>
-      <c r="K30" s="0" t="inlineStr">
-        <is>
-          <t>Bimestral</t>
         </is>
       </c>
       <c r="L30" s="0" t="inlineStr">
@@ -1303,7 +1273,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 9</t>
+          <t>Promoción de Sectores Ecónomicos</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
@@ -1360,7 +1330,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 9</t>
+          <t>Promoción de Sectores Ecónomicos</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">
@@ -1417,7 +1387,7 @@
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 9</t>
+          <t>Promoción de Sectores Ecónomicos</t>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
@@ -1474,7 +1444,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
@@ -1516,7 +1486,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D35" s="0" t="inlineStr">
@@ -1558,7 +1528,7 @@
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D36" s="0" t="inlineStr">
@@ -1600,7 +1570,7 @@
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D37" s="0" t="inlineStr">
@@ -1642,7 +1612,7 @@
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D38" s="0" t="inlineStr">
@@ -1684,7 +1654,7 @@
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D39" s="0" t="inlineStr">
@@ -1726,7 +1696,7 @@
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D40" s="0" t="inlineStr">
@@ -1768,7 +1738,7 @@
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D41" s="0" t="inlineStr">
@@ -1810,7 +1780,7 @@
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D42" s="0" t="inlineStr">
@@ -1852,7 +1822,7 @@
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D43" s="0" t="inlineStr">
@@ -1894,7 +1864,7 @@
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D44" s="0" t="inlineStr">
@@ -1951,7 +1921,7 @@
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D45" s="0" t="inlineStr">
@@ -2008,7 +1978,7 @@
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D46" s="0" t="inlineStr">
@@ -2065,7 +2035,7 @@
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D47" s="0" t="inlineStr">
@@ -2122,7 +2092,7 @@
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D48" s="0" t="inlineStr">
@@ -2164,7 +2134,7 @@
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D49" s="0" t="inlineStr">
@@ -2206,7 +2176,7 @@
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D50" s="0" t="inlineStr">
@@ -2248,7 +2218,7 @@
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D51" s="0" t="inlineStr">
@@ -2290,7 +2260,7 @@
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D52" s="0" t="inlineStr">
@@ -2332,7 +2302,7 @@
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D53" s="0" t="inlineStr">
@@ -2363,11 +2333,6 @@
       <c r="J53" s="0" t="inlineStr">
         <is>
           <t>100</t>
-        </is>
-      </c>
-      <c r="K53" s="0" t="inlineStr">
-        <is>
-          <t>Bimestral</t>
         </is>
       </c>
       <c r="L53" s="0" t="inlineStr">
@@ -2389,7 +2354,7 @@
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D54" s="0" t="inlineStr">
@@ -2420,11 +2385,6 @@
       <c r="J54" s="0" t="inlineStr">
         <is>
           <t>100</t>
-        </is>
-      </c>
-      <c r="K54" s="0" t="inlineStr">
-        <is>
-          <t>Bimestral</t>
         </is>
       </c>
       <c r="L54" s="0" t="inlineStr">
@@ -2446,7 +2406,7 @@
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D55" s="0" t="inlineStr">
@@ -2463,22 +2423,22 @@
     <row r="56" spans="1:14">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR 3</t>
+          <t>Prueba MIR 4</t>
         </is>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 7</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N56" s="0" t="inlineStr">
         <is>
-          <t>aaaa</t>
+          <t>ggg</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2450,7 @@
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 4</t>
+          <t>Cultura</t>
         </is>
       </c>
       <c r="D57" s="0" t="inlineStr">
@@ -2507,34 +2467,34 @@
     <row r="58" spans="1:14">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR 4</t>
+          <t>Prueba MIR 3</t>
         </is>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Desarrollo Económico</t>
         </is>
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N58" s="0" t="inlineStr">
         <is>
-          <t>ggg</t>
+          <t>aaaa</t>
         </is>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables</t>
+          <t>Prueba MIR 2</t>
         </is>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D59" s="0" t="inlineStr">
@@ -2544,7 +2504,7 @@
       </c>
       <c r="E59" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador de prueba Mir 2</t>
         </is>
       </c>
       <c r="F59" s="0" t="inlineStr">
@@ -2554,39 +2514,39 @@
       </c>
       <c r="G59" s="0" t="inlineStr">
         <is>
-          <t>Var1</t>
+          <t>Apoyos Alimentarios</t>
         </is>
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bienal</t>
         </is>
       </c>
       <c r="N59" s="0" t="inlineStr">
         <is>
-          <t>Este es un supuesto</t>
+          <t>qqqq</t>
         </is>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables</t>
+          <t>Prueba MIR 2</t>
         </is>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D60" s="0" t="inlineStr">
@@ -2596,7 +2556,7 @@
       </c>
       <c r="E60" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador de prueba Mir 2</t>
         </is>
       </c>
       <c r="F60" s="0" t="inlineStr">
@@ -2606,39 +2566,39 @@
       </c>
       <c r="G60" s="0" t="inlineStr">
         <is>
-          <t>Var2</t>
+          <t>Apoyos en especie</t>
         </is>
       </c>
       <c r="I60" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K60" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bienal</t>
         </is>
       </c>
       <c r="N60" s="0" t="inlineStr">
         <is>
-          <t>Este es un supuesto</t>
+          <t>qqqq</t>
         </is>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables</t>
+          <t>Prueba Indicadores K</t>
         </is>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D61" s="0" t="inlineStr">
@@ -2648,27 +2608,27 @@
       </c>
       <c r="E61" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador 2</t>
         </is>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G61" s="0" t="inlineStr">
         <is>
-          <t>Var3</t>
+          <t>Variable test 1</t>
         </is>
       </c>
       <c r="I61" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>12324</t>
         </is>
       </c>
       <c r="K61" s="0" t="inlineStr">
@@ -2678,19 +2638,19 @@
       </c>
       <c r="N61" s="0" t="inlineStr">
         <is>
-          <t>Este es un supuesto</t>
+          <t>aasdfdfgh</t>
         </is>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="0" t="inlineStr">
         <is>
-          <t>Actividad Completa</t>
+          <t>Prueba Indicadores K</t>
         </is>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D62" s="0" t="inlineStr">
@@ -2700,39 +2660,49 @@
       </c>
       <c r="E62" s="0" t="inlineStr">
         <is>
-          <t>Indicado 1</t>
+          <t>Indicador 2</t>
+        </is>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G62" s="0" t="inlineStr">
+        <is>
+          <t>Variable test 2</t>
         </is>
       </c>
       <c r="I62" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>12324</t>
         </is>
       </c>
       <c r="K62" s="0" t="inlineStr">
         <is>
-          <t>Ciclo escolar</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="N62" s="0" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>aasdfdfgh</t>
         </is>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR 2</t>
+          <t>Prueba Indicadores K</t>
         </is>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D63" s="0" t="inlineStr">
@@ -2742,49 +2712,49 @@
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
-          <t>Indicador de prueba Mir 2</t>
+          <t>Indicador 2</t>
         </is>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G63" s="0" t="inlineStr">
         <is>
-          <t>Apoyos Alimentarios</t>
+          <t>Variable test 3</t>
         </is>
       </c>
       <c r="I63" s="0" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>12324</t>
         </is>
       </c>
       <c r="K63" s="0" t="inlineStr">
         <is>
-          <t>Bienal</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="N63" s="0" t="inlineStr">
         <is>
-          <t>qqqq</t>
+          <t>aasdfdfgh</t>
         </is>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR 2</t>
+          <t>Prueba Calculo de Variables 2|</t>
         </is>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D64" s="0" t="inlineStr">
@@ -2794,49 +2764,49 @@
       </c>
       <c r="E64" s="0" t="inlineStr">
         <is>
-          <t>Indicador de prueba Mir 2</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G64" s="0" t="inlineStr">
         <is>
-          <t>Apoyos en especie</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I64" s="0" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="J64" s="0" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="K64" s="0" t="inlineStr">
         <is>
-          <t>Bienal</t>
+          <t>Bianual</t>
         </is>
       </c>
       <c r="N64" s="0" t="inlineStr">
         <is>
-          <t>qqqq</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="0" t="inlineStr">
         <is>
-          <t>Prueba Indicadores K</t>
+          <t>Prueba Calculo de Variables 2|</t>
         </is>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D65" s="0" t="inlineStr">
@@ -2846,49 +2816,49 @@
       </c>
       <c r="E65" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G65" s="0" t="inlineStr">
         <is>
-          <t>Variable test 1</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I65" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="J65" s="0" t="inlineStr">
         <is>
-          <t>12324</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="K65" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bianual</t>
         </is>
       </c>
       <c r="N65" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="0" t="inlineStr">
         <is>
-          <t>Prueba Indicadores K</t>
+          <t>Prueba Calculo de Variables 2|</t>
         </is>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D66" s="0" t="inlineStr">
@@ -2898,49 +2868,49 @@
       </c>
       <c r="E66" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G66" s="0" t="inlineStr">
         <is>
-          <t>Variable test 2</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I66" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="J66" s="0" t="inlineStr">
         <is>
-          <t>12324</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="K66" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bianual</t>
         </is>
       </c>
       <c r="N66" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="0" t="inlineStr">
         <is>
-          <t>Prueba Indicadores K</t>
+          <t>Prueba Calculo de Variables 2|</t>
         </is>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D67" s="0" t="inlineStr">
@@ -2950,37 +2920,37 @@
       </c>
       <c r="E67" s="0" t="inlineStr">
         <is>
-          <t>Indicador 2</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G67" s="0" t="inlineStr">
         <is>
-          <t>Variable test 3</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I67" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="J67" s="0" t="inlineStr">
         <is>
-          <t>12324</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="K67" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Bianual</t>
         </is>
       </c>
       <c r="N67" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>aa</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2962,7 @@
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D68" s="0" t="inlineStr">
@@ -3007,12 +2977,12 @@
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G68" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I68" s="0" t="inlineStr">
@@ -3044,7 +3014,7 @@
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Turismo</t>
         </is>
       </c>
       <c r="D69" s="0" t="inlineStr">
@@ -3059,12 +3029,12 @@
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G69" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I69" s="0" t="inlineStr">
@@ -3091,12 +3061,12 @@
     <row r="70" spans="1:14">
       <c r="A70" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Prueba MIR</t>
         </is>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D70" s="0" t="inlineStr">
@@ -3109,46 +3079,31 @@
           <t>Indicador 1</t>
         </is>
       </c>
-      <c r="F70" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G70" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I70" s="0" t="inlineStr">
-        <is>
-          <t>1244</t>
-        </is>
-      </c>
       <c r="J70" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="K70" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="N70" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>aaaa</t>
         </is>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D71" s="0" t="inlineStr">
@@ -3158,49 +3113,34 @@
       </c>
       <c r="E71" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
-        </is>
-      </c>
-      <c r="F71" s="0" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G71" s="0" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I71" s="0" t="inlineStr">
-        <is>
-          <t>1244</t>
+          <t>Prueba</t>
         </is>
       </c>
       <c r="J71" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K71" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="N71" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>{a´lemf{qwelmfq{ewlmf</t>
         </is>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Prueba Calculo de Variables</t>
         </is>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Deporte</t>
         </is>
       </c>
       <c r="D72" s="0" t="inlineStr">
@@ -3215,44 +3155,44 @@
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G72" s="0" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Var1</t>
         </is>
       </c>
       <c r="I72" s="0" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J72" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="K72" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="N72" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Este es un supuesto</t>
         </is>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="0" t="inlineStr">
         <is>
-          <t>Prueba Calculo de Variables 2|</t>
+          <t>Prueba Calculo de Variables</t>
         </is>
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 12</t>
+          <t>Deporte</t>
         </is>
       </c>
       <c r="D73" s="0" t="inlineStr">
@@ -3267,44 +3207,44 @@
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G73" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Var2</t>
         </is>
       </c>
       <c r="I73" s="0" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J73" s="0" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="K73" s="0" t="inlineStr">
         <is>
-          <t>Bianual</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="N73" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Este es un supuesto</t>
         </is>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="0" t="inlineStr">
         <is>
-          <t>Prueba MIR</t>
+          <t>Prueba Calculo de Variables</t>
         </is>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Deporte</t>
         </is>
       </c>
       <c r="D74" s="0" t="inlineStr">
@@ -3317,9 +3257,24 @@
           <t>Indicador 1</t>
         </is>
       </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G74" s="0" t="inlineStr">
+        <is>
+          <t>Var3</t>
+        </is>
+      </c>
+      <c r="I74" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
       <c r="J74" s="0" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="K74" s="0" t="inlineStr">
@@ -3329,19 +3284,19 @@
       </c>
       <c r="N74" s="0" t="inlineStr">
         <is>
-          <t>aaaa</t>
+          <t>Este es un supuesto</t>
         </is>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Prueba Indicadores K</t>
         </is>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="D75" s="0" t="inlineStr">
@@ -3351,34 +3306,39 @@
       </c>
       <c r="E75" s="0" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="I75" s="0" t="inlineStr">
+        <is>
+          <t>111</t>
         </is>
       </c>
       <c r="J75" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="K75" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Diario</t>
         </is>
       </c>
       <c r="N75" s="0" t="inlineStr">
         <is>
-          <t>{a´lemf{qwelmfq{ewlmf</t>
+          <t>aasdfdfgh</t>
         </is>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="0" t="inlineStr">
         <is>
-          <t>Prueba Indicadores K</t>
+          <t>Actividad Completa</t>
         </is>
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 1</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="D76" s="0" t="inlineStr">
@@ -3388,27 +3348,22 @@
       </c>
       <c r="E76" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicado 1</t>
         </is>
       </c>
       <c r="I76" s="0" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J76" s="0" t="inlineStr">
         <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="K76" s="0" t="inlineStr">
-        <is>
-          <t>Diario</t>
+          <t>100</t>
         </is>
       </c>
       <c r="N76" s="0" t="inlineStr">
         <is>
-          <t>aasdfdfgh</t>
+          <t>Supuesto</t>
         </is>
       </c>
     </row>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -122,7 +122,7 @@
         </is>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Eje</t>
@@ -134,11 +134,6 @@
 </t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Porcentaje: 47%</t>
-        </is>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
@@ -148,7 +143,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>06-17-2022 12:35:01 pm</t>
+          <t>06-17-2022 02:34:32 pm</t>
         </is>
       </c>
     </row>
@@ -284,7 +279,7 @@
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>1211%</t>
         </is>
       </c>
       <c r="M9" s="0" t="inlineStr">
@@ -341,7 +336,7 @@
       </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>1211%</t>
         </is>
       </c>
       <c r="M10" s="0" t="inlineStr">
@@ -574,7 +569,7 @@
       </c>
       <c r="L14" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N14" s="0" t="inlineStr">
@@ -616,7 +611,7 @@
       </c>
       <c r="L15" s="0" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N15" s="0" t="inlineStr">
@@ -658,7 +653,7 @@
       </c>
       <c r="L16" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N16" s="0" t="inlineStr">
@@ -700,7 +695,7 @@
       </c>
       <c r="L17" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N17" s="0" t="inlineStr">
@@ -742,7 +737,7 @@
       </c>
       <c r="L18" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N18" s="0" t="inlineStr">
@@ -784,7 +779,7 @@
       </c>
       <c r="L19" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N19" s="0" t="inlineStr">
@@ -836,7 +831,7 @@
       </c>
       <c r="L20" s="0" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1211%</t>
         </is>
       </c>
       <c r="M20" s="0" t="inlineStr">
@@ -893,7 +888,7 @@
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1211%</t>
         </is>
       </c>
       <c r="M21" s="0" t="inlineStr">
@@ -940,7 +935,7 @@
       </c>
       <c r="L22" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N22" s="0" t="inlineStr">
@@ -982,7 +977,7 @@
       </c>
       <c r="L23" s="0" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>14829%</t>
         </is>
       </c>
       <c r="N23" s="0" t="inlineStr">
@@ -1024,7 +1019,7 @@
       </c>
       <c r="L24" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>14829%</t>
         </is>
       </c>
       <c r="N24" s="0" t="inlineStr">
@@ -1066,7 +1061,7 @@
       </c>
       <c r="L25" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N25" s="0" t="inlineStr">
@@ -1108,7 +1103,7 @@
       </c>
       <c r="L26" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N26" s="0" t="inlineStr">
@@ -1150,7 +1145,7 @@
       </c>
       <c r="L27" s="0" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N27" s="0" t="inlineStr">
@@ -1192,7 +1187,7 @@
       </c>
       <c r="L28" s="0" t="inlineStr">
         <is>
-          <t>12312%</t>
+          <t>14829%</t>
         </is>
       </c>
       <c r="N28" s="0" t="inlineStr">
@@ -1244,7 +1239,7 @@
       </c>
       <c r="L29" s="0" t="inlineStr">
         <is>
-          <t>1000%</t>
+          <t>1211%</t>
         </is>
       </c>
       <c r="M29" s="0" t="inlineStr">
@@ -1301,7 +1296,7 @@
       </c>
       <c r="L30" s="0" t="inlineStr">
         <is>
-          <t>1000%</t>
+          <t>1211%</t>
         </is>
       </c>
       <c r="M30" s="0" t="inlineStr">
@@ -1353,7 +1348,7 @@
       </c>
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K31" s="0" t="inlineStr">
@@ -1363,7 +1358,7 @@
       </c>
       <c r="L31" s="0" t="inlineStr">
         <is>
-          <t>1500%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="M31" s="0" t="inlineStr">
@@ -1415,7 +1410,7 @@
       </c>
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K32" s="0" t="inlineStr">
@@ -1425,7 +1420,7 @@
       </c>
       <c r="L32" s="0" t="inlineStr">
         <is>
-          <t>1500%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="M32" s="0" t="inlineStr">
@@ -1477,7 +1472,7 @@
       </c>
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K33" s="0" t="inlineStr">
@@ -1487,7 +1482,7 @@
       </c>
       <c r="L33" s="0" t="inlineStr">
         <is>
-          <t>1500%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="M33" s="0" t="inlineStr">
@@ -1534,7 +1529,7 @@
       </c>
       <c r="L34" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N34" s="0" t="inlineStr">
@@ -1576,7 +1571,7 @@
       </c>
       <c r="L35" s="0" t="inlineStr">
         <is>
-          <t>1234%</t>
+          <t>14829%</t>
         </is>
       </c>
       <c r="N35" s="0" t="inlineStr">
@@ -1618,7 +1613,7 @@
       </c>
       <c r="L36" s="0" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>14829%</t>
         </is>
       </c>
       <c r="N36" s="0" t="inlineStr">
@@ -1660,7 +1655,7 @@
       </c>
       <c r="L37" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N37" s="0" t="inlineStr">
@@ -1702,7 +1697,7 @@
       </c>
       <c r="L38" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N38" s="0" t="inlineStr">
@@ -1744,7 +1739,7 @@
       </c>
       <c r="L39" s="0" t="inlineStr">
         <is>
-          <t>123%</t>
+          <t>14829%</t>
         </is>
       </c>
       <c r="N39" s="0" t="inlineStr">
@@ -1786,7 +1781,7 @@
       </c>
       <c r="L40" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N40" s="0" t="inlineStr">
@@ -1828,7 +1823,7 @@
       </c>
       <c r="L41" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N41" s="0" t="inlineStr">
@@ -1870,7 +1865,7 @@
       </c>
       <c r="L42" s="0" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>14829%</t>
         </is>
       </c>
       <c r="N42" s="0" t="inlineStr">
@@ -1912,7 +1907,7 @@
       </c>
       <c r="L43" s="0" t="inlineStr">
         <is>
-          <t>1000%</t>
+          <t>14829%</t>
         </is>
       </c>
       <c r="N43" s="0" t="inlineStr">
@@ -1959,7 +1954,7 @@
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K44" s="0" t="inlineStr">
@@ -1969,7 +1964,7 @@
       </c>
       <c r="L44" s="0" t="inlineStr">
         <is>
-          <t>4000%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="M44" s="0" t="inlineStr">
@@ -2021,7 +2016,7 @@
       </c>
       <c r="J45" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K45" s="0" t="inlineStr">
@@ -2031,7 +2026,7 @@
       </c>
       <c r="L45" s="0" t="inlineStr">
         <is>
-          <t>4000%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="M45" s="0" t="inlineStr">
@@ -2083,7 +2078,7 @@
       </c>
       <c r="J46" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K46" s="0" t="inlineStr">
@@ -2093,7 +2088,7 @@
       </c>
       <c r="L46" s="0" t="inlineStr">
         <is>
-          <t>4000%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="M46" s="0" t="inlineStr">
@@ -2145,7 +2140,7 @@
       </c>
       <c r="J47" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K47" s="0" t="inlineStr">
@@ -2155,7 +2150,7 @@
       </c>
       <c r="L47" s="0" t="inlineStr">
         <is>
-          <t>4000%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="M47" s="0" t="inlineStr">
@@ -2202,7 +2197,7 @@
       </c>
       <c r="L48" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N48" s="0" t="inlineStr">
@@ -2244,7 +2239,7 @@
       </c>
       <c r="L49" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N49" s="0" t="inlineStr">
@@ -2286,7 +2281,7 @@
       </c>
       <c r="L50" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N50" s="0" t="inlineStr">
@@ -2328,7 +2323,7 @@
       </c>
       <c r="L51" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N51" s="0" t="inlineStr">
@@ -2370,7 +2365,7 @@
       </c>
       <c r="L52" s="0" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>300%</t>
         </is>
       </c>
       <c r="N52" s="0" t="inlineStr">
@@ -2422,7 +2417,7 @@
       </c>
       <c r="L53" s="0" t="inlineStr">
         <is>
-          <t>200%</t>
+          <t>1211%</t>
         </is>
       </c>
       <c r="M53" s="0" t="inlineStr">
@@ -2479,7 +2474,7 @@
       </c>
       <c r="L54" s="0" t="inlineStr">
         <is>
-          <t>200%</t>
+          <t>1211%</t>
         </is>
       </c>
       <c r="M54" s="0" t="inlineStr">
@@ -2511,12 +2506,12 @@
       </c>
       <c r="J55" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L55" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="N55" s="0" t="inlineStr">
@@ -2543,12 +2538,12 @@
       </c>
       <c r="J56" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L56" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="N56" s="0" t="inlineStr">
@@ -2575,12 +2570,12 @@
       </c>
       <c r="J57" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L57" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="N57" s="0" t="inlineStr">
@@ -2607,12 +2602,12 @@
       </c>
       <c r="J58" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L58" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="N58" s="0" t="inlineStr">
@@ -2659,7 +2654,7 @@
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
@@ -2669,7 +2664,7 @@
       </c>
       <c r="L59" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M59" s="0" t="inlineStr">
@@ -2721,7 +2716,7 @@
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K60" s="0" t="inlineStr">
@@ -2731,7 +2726,7 @@
       </c>
       <c r="L60" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M60" s="0" t="inlineStr">
@@ -2783,7 +2778,7 @@
       </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>12324%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K61" s="0" t="inlineStr">
@@ -2793,7 +2788,7 @@
       </c>
       <c r="L61" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M61" s="0" t="inlineStr">
@@ -2845,7 +2840,7 @@
       </c>
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>12324%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K62" s="0" t="inlineStr">
@@ -2855,7 +2850,7 @@
       </c>
       <c r="L62" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M62" s="0" t="inlineStr">
@@ -2907,7 +2902,7 @@
       </c>
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>12324%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K63" s="0" t="inlineStr">
@@ -2917,7 +2912,7 @@
       </c>
       <c r="L63" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M63" s="0" t="inlineStr">
@@ -2969,7 +2964,7 @@
       </c>
       <c r="J64" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K64" s="0" t="inlineStr">
@@ -2979,7 +2974,7 @@
       </c>
       <c r="L64" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M64" s="0" t="inlineStr">
@@ -3031,7 +3026,7 @@
       </c>
       <c r="J65" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K65" s="0" t="inlineStr">
@@ -3041,7 +3036,7 @@
       </c>
       <c r="L65" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M65" s="0" t="inlineStr">
@@ -3093,7 +3088,7 @@
       </c>
       <c r="J66" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K66" s="0" t="inlineStr">
@@ -3103,7 +3098,7 @@
       </c>
       <c r="L66" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M66" s="0" t="inlineStr">
@@ -3155,7 +3150,7 @@
       </c>
       <c r="J67" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K67" s="0" t="inlineStr">
@@ -3165,7 +3160,7 @@
       </c>
       <c r="L67" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M67" s="0" t="inlineStr">
@@ -3217,7 +3212,7 @@
       </c>
       <c r="J68" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K68" s="0" t="inlineStr">
@@ -3227,7 +3222,7 @@
       </c>
       <c r="L68" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M68" s="0" t="inlineStr">
@@ -3279,7 +3274,7 @@
       </c>
       <c r="J69" s="0" t="inlineStr">
         <is>
-          <t>5000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K69" s="0" t="inlineStr">
@@ -3289,7 +3284,7 @@
       </c>
       <c r="L69" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M69" s="0" t="inlineStr">
@@ -3326,7 +3321,7 @@
       </c>
       <c r="J70" s="0" t="inlineStr">
         <is>
-          <t>1000%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K70" s="0" t="inlineStr">
@@ -3336,7 +3331,7 @@
       </c>
       <c r="L70" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="N70" s="0" t="inlineStr">
@@ -3378,7 +3373,7 @@
       </c>
       <c r="L71" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="N71" s="0" t="inlineStr">
@@ -3425,7 +3420,7 @@
       </c>
       <c r="J72" s="0" t="inlineStr">
         <is>
-          <t>1323%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K72" s="0" t="inlineStr">
@@ -3435,7 +3430,7 @@
       </c>
       <c r="L72" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M72" s="0" t="inlineStr">
@@ -3487,7 +3482,7 @@
       </c>
       <c r="J73" s="0" t="inlineStr">
         <is>
-          <t>1323%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K73" s="0" t="inlineStr">
@@ -3497,7 +3492,7 @@
       </c>
       <c r="L73" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M73" s="0" t="inlineStr">
@@ -3549,7 +3544,7 @@
       </c>
       <c r="J74" s="0" t="inlineStr">
         <is>
-          <t>1323%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K74" s="0" t="inlineStr">
@@ -3559,7 +3554,7 @@
       </c>
       <c r="L74" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M74" s="0" t="inlineStr">
@@ -3601,7 +3596,7 @@
       </c>
       <c r="J75" s="0" t="inlineStr">
         <is>
-          <t>1234%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K75" s="0" t="inlineStr">
@@ -3611,7 +3606,7 @@
       </c>
       <c r="L75" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M75" s="0" t="inlineStr">
@@ -3658,7 +3653,7 @@
       </c>
       <c r="L76" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M76" s="0" t="inlineStr">

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -33,15 +33,15 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <b/>
       <i/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,10 +77,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -99,7 +99,7 @@
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Desarrollo Social</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
@@ -128,9 +128,10 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Salud y Vida Digna</t>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
         </is>
       </c>
     </row>
@@ -142,77 +143,77 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>06-20-2022 04:30:33 pm</t>
+          <t>06-23-2022 04:39:09 pm</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Pograma Presupuestario</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Descripción del PP</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Resumen Narrativo</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Acción o Proyecto</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Indicador</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Dato de la variable</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Línea Base</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Meta</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Frecuencia</t>
         </is>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Avance</t>
         </is>
       </c>
-      <c r="M7" s="3" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Medio de Verificación</t>
         </is>
       </c>
-      <c r="N7" s="3" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Supuesto</t>
         </is>
@@ -229,13 +230,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -243,12 +244,12 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>Entrega de 1,500 apoyos para cuidado infantil</t>
+          <t>Proceso de Fiscalización (Ingresos Coordinados)</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>Apoyos económicos entregados</t>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
       <c r="J8" s="0">
@@ -266,7 +267,7 @@
       </c>
       <c r="M8" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6754</t>
+          <t>Medio verifica Indicador 6999</t>
         </is>
       </c>
       <c r="N8" s="0" t="inlineStr">
@@ -286,13 +287,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -300,12 +301,12 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Entrega de paquetes básicos alimentarios a 46,218 personas</t>
+          <t>Procuraduría digital</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>Paquetes básicos alimentarios entregados / Paquetes básicos alimentarios programados</t>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
       <c r="J9" s="0">
@@ -323,7 +324,7 @@
       </c>
       <c r="M9" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6755</t>
+          <t>Medio verifica Indicador 7000</t>
         </is>
       </c>
       <c r="N9" s="0" t="inlineStr">
@@ -343,13 +344,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -357,12 +358,12 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Validación del Padrón de beneficiarios del Subsidio al transporte público para el otorgamiento de 120,000 apoyos</t>
+          <t>Programa nuevas placas</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>Registros validados / Total de registros en el Padrón </t>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
       <c r="J10" s="0">
@@ -380,7 +381,7 @@
       </c>
       <c r="M10" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6756</t>
+          <t>Medio verifica Indicador 7001</t>
         </is>
       </c>
       <c r="N10" s="0" t="inlineStr">
@@ -400,13 +401,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -414,12 +415,12 @@
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Construcción de 212 cuartos para adulto mayor, 222 cuartos para la prevención de situaciones de riesgo en infantes y mujeres jovenes, 295 cuartos adicionales, 131 techos firmes, 65 pisos firmes</t>
+          <t>Programa de regularización de tenencia</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Avance físico y financiero</t>
+          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
         </is>
       </c>
       <c r="J11" s="0">
@@ -437,7 +438,7 @@
       </c>
       <c r="M11" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6757</t>
+          <t>Medio verifica Indicador 7002</t>
         </is>
       </c>
       <c r="N11" s="0" t="inlineStr">
@@ -457,13 +458,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -471,12 +472,12 @@
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>Beneficiar a 91,017 personas con obras sociales de drenaje, agua potable y electrificación</t>
+          <t>Impuestos ecológicos</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Avance físico y financiero</t>
+          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
         </is>
       </c>
       <c r="J12" s="0">
@@ -494,7 +495,7 @@
       </c>
       <c r="M12" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6758</t>
+          <t>Medio verifica Indicador 7003</t>
         </is>
       </c>
       <c r="N12" s="0" t="inlineStr">
@@ -514,26 +515,27 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>Promover la participación y responsabilidad social de las personas con causas sociales a través del programa de voluntariado.</t>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Marco Normativo 
+(FIEL ESTATAL)</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>Acciones de voluntariado realizadas/ Acciones de voluntariado programadas</t>
+          <t>Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas</t>
         </is>
       </c>
       <c r="J13" s="0">
@@ -551,7 +553,7 @@
       </c>
       <c r="M13" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6759</t>
+          <t>Medio verifica Indicador 6969</t>
         </is>
       </c>
       <c r="N13" s="0" t="inlineStr">
@@ -571,13 +573,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -585,12 +587,12 @@
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>Otorgar apoyos para el fortalecimiento de 20 OSCs</t>
+          <t>Autoridad Certificadora</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>OSCs beneficiadas</t>
+          <t>Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas</t>
         </is>
       </c>
       <c r="J14" s="0">
@@ -608,7 +610,7 @@
       </c>
       <c r="M14" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6760</t>
+          <t>Medio verifica Indicador 6970</t>
         </is>
       </c>
       <c r="N14" s="0" t="inlineStr">
@@ -628,13 +630,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -642,12 +644,12 @@
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>Brindar capacitación a 240 organizaciones de la sociedad civil a través de talleres, seminarios y diplomados para fortalecer sus capacidades institucionales.</t>
+          <t>Inicio de Certificaciones</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>OSCs beneficiadas</t>
+          <t>Porcentaje de certificaciones emitidas respecto del total identificadas en el personal de  la Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="J15" s="0">
@@ -665,7 +667,7 @@
       </c>
       <c r="M15" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6761</t>
+          <t>Medio verifica Indicador 6971</t>
         </is>
       </c>
       <c r="N15" s="0" t="inlineStr">
@@ -685,13 +687,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -699,12 +701,12 @@
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Realizar 70 jornadas comunitarias</t>
+          <t>Trámites en línea a través de la firma electrónica</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>Jornadas comunitarias realizadas</t>
+          <t>Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="J16" s="0">
@@ -722,7 +724,7 @@
       </c>
       <c r="M16" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6762</t>
+          <t>Medio verifica Indicador 6972</t>
         </is>
       </c>
       <c r="N16" s="0" t="inlineStr">
@@ -742,13 +744,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -756,12 +758,12 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Dar seguimiento a la Estrategia de Combate a la Pobreza en el Estado a través de las 6 mesas de trabajo del Sistema Estatal de Desarrollo Social (SEDS)</t>
+          <t>Reestructura de página web</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de acciones realizadas</t>
+          <t>Porcentaje de kilómetros actualizados respecto del total identificados</t>
         </is>
       </c>
       <c r="J17" s="0">
@@ -779,7 +781,7 @@
       </c>
       <c r="M17" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6763</t>
+          <t>Medio verifica Indicador 6973</t>
         </is>
       </c>
       <c r="N17" s="0" t="inlineStr">
@@ -799,13 +801,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -813,12 +815,12 @@
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Elaboración de diagnósticos en materia de desarrollo social, instrumentos de seguimiento a la política social, así como estadísticas y mapas geográficos a nivel estatal y municipal sobre la pobreza y las carencias sociales en el Estado.</t>
+          <t>Catastro web</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de acciones realizadas</t>
+          <t>Sumatoria de Consultas a la página web de Catastro </t>
         </is>
       </c>
       <c r="J18" s="0">
@@ -836,7 +838,7 @@
       </c>
       <c r="M18" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6764</t>
+          <t>Medio verifica Indicador 6974</t>
         </is>
       </c>
       <c r="N18" s="0" t="inlineStr">
@@ -856,13 +858,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -870,12 +872,12 @@
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Realizar 4 intervenciones comunitarias para el Fortalecimiento del Tejido Social</t>
+          <t>Vuelo fotogramétrico</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>Intervenciones comunitarias realizadas</t>
+          <t>Sumatoria de Consultas a la página web de Catastro </t>
         </is>
       </c>
       <c r="J19" s="0">
@@ -893,7 +895,7 @@
       </c>
       <c r="M19" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6767</t>
+          <t>Medio verifica Indicador 6975</t>
         </is>
       </c>
       <c r="N19" s="0" t="inlineStr">
@@ -913,13 +915,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -927,12 +929,12 @@
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Validar el padrón  beneficiarios de la CEA para el otorgamiento de subsidios en el pago de agua a 6,000 adultos mayores y personas con discapacidad</t>
+          <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>Registros validados / Total de registros en el Padrón </t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
       <c r="J20" s="0">
@@ -950,7 +952,7 @@
       </c>
       <c r="M20" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6769</t>
+          <t>Medio verifica Indicador 6976</t>
         </is>
       </c>
       <c r="N20" s="0" t="inlineStr">
@@ -970,13 +972,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
-</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -984,12 +986,12 @@
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Apoyar a artesanos del estado de Querétaro mediante la entrega de materia prima, o, en su caso, capacitación para sus procesos</t>
+          <t>Fortalecimiento de ejercicio rector de las TIC's</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de apoyos entregados</t>
+          <t>Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización</t>
         </is>
       </c>
       <c r="J21" s="0">
@@ -1007,7 +1009,7 @@
       </c>
       <c r="M21" s="0" t="inlineStr">
         <is>
-          <t>Medio verifica Indicador 6770</t>
+          <t>Medio verifica Indicador 6977</t>
         </is>
       </c>
       <c r="N21" s="0" t="inlineStr">
@@ -1019,42 +1021,34 @@
     <row r="22" spans="1:14">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>Desarrollo social e integral</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>Reducir la pobreza y mejorar la calidad de la vida de la ciudadanía</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>Apoyos escolares (prueba)</t>
+          <t>Eficiencia de procesos administrativos, financieros y contables</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>Apoyos totales entregados</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t>Apoyos entregados,Apoyos totales</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
         </is>
       </c>
       <c r="J22" s="0">
@@ -1062,22 +1056,1569 @@
       </c>
       <c r="K22" s="0" t="inlineStr">
         <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6978</t>
+        </is>
+      </c>
+      <c r="N22" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>Planeación para la implementación del nuevo sistema</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2023</t>
+        </is>
+      </c>
+      <c r="J23" s="0">
+        <v>100</v>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6979</t>
+        </is>
+      </c>
+      <c r="N23" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>Implementación del sistema</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2024</t>
+        </is>
+      </c>
+      <c r="J24" s="0">
+        <v>100</v>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6980</t>
+        </is>
+      </c>
+      <c r="N24" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Arranque del Sistema</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2025</t>
+        </is>
+      </c>
+      <c r="J25" s="0">
+        <v>100</v>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6981</t>
+        </is>
+      </c>
+      <c r="N25" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>Elaboración y Aprobación de la Ley Estatal de Disciplina</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas</t>
+        </is>
+      </c>
+      <c r="J26" s="0">
+        <v>100</v>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M26" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6982</t>
+        </is>
+      </c>
+      <c r="N26" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>Esquemas innovadores de financiamiento</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
+        </is>
+      </c>
+      <c r="J27" s="0">
+        <v>100</v>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6983</t>
+        </is>
+      </c>
+      <c r="N27" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Planificar acciones</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
+        </is>
+      </c>
+      <c r="J28" s="0">
+        <v>100</v>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M28" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6984</t>
+        </is>
+      </c>
+      <c r="N28" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>Proceso de reformas</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
+        </is>
+      </c>
+      <c r="J29" s="0">
+        <v>100</v>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L29" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M29" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6985</t>
+        </is>
+      </c>
+      <c r="N29" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>Balance Presupuestario</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>Mantener la Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="J30" s="0">
+        <v>100</v>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M30" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6986</t>
+        </is>
+      </c>
+      <c r="N30" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Efectividad en cumplimiento de obligaciones fiscales</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>Mantener la Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="J31" s="0">
+        <v>100</v>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M31" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6987</t>
+        </is>
+      </c>
+      <c r="N31" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>Automatización procesos bancarios, reporteo de pagos, rendimientos y comisiones</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>Mantener la Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="J32" s="0">
+        <v>100</v>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M32" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6988</t>
+        </is>
+      </c>
+      <c r="N32" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>Priorización del Gasto</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>Mantener la Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="J33" s="0">
+        <v>100</v>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L33" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M33" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6989</t>
+        </is>
+      </c>
+      <c r="N33" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>Proyectos para obras y acciones con financiamiento de recursos estatales</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>Mantener la Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="J34" s="0">
+        <v>100</v>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L34" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M34" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6990</t>
+        </is>
+      </c>
+      <c r="N34" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>Apertura de chequeras, venta de inmuebles, activos en general, créditos a corto plazo</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="J35" s="0">
+        <v>100</v>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L35" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M35" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6991</t>
+        </is>
+      </c>
+      <c r="N35" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>Mejorar las condiciones financieras</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="J36" s="0">
+        <v>100</v>
+      </c>
+      <c r="K36" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L36" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M36" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6992</t>
+        </is>
+      </c>
+      <c r="N36" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="J37" s="0">
+        <v>100</v>
+      </c>
+      <c r="K37" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L37" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M37" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6993</t>
+        </is>
+      </c>
+      <c r="N37" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>Portal web público</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="J38" s="0">
+        <v>100</v>
+      </c>
+      <c r="K38" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L38" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M38" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6994</t>
+        </is>
+      </c>
+      <c r="N38" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>Centralizar la estrategia de recaudación</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>Monto acumulado de contribuciones estatales</t>
+        </is>
+      </c>
+      <c r="J39" s="0">
+        <v>100</v>
+      </c>
+      <c r="K39" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L39" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M39" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6995</t>
+        </is>
+      </c>
+      <c r="N39" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>Fiscalización Digital </t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados </t>
+        </is>
+      </c>
+      <c r="J40" s="0">
+        <v>100</v>
+      </c>
+      <c r="K40" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L40" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M40" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6996</t>
+        </is>
+      </c>
+      <c r="N40" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>Reformas Fiscales</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+        </is>
+      </c>
+      <c r="J41" s="0">
+        <v>100</v>
+      </c>
+      <c r="K41" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L41" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M41" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6997</t>
+        </is>
+      </c>
+      <c r="N41" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>Digitalización de trámites y procesos de recaudación para la ciudadanía</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+        </is>
+      </c>
+      <c r="J42" s="0">
+        <v>100</v>
+      </c>
+      <c r="K42" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L42" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M42" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 6998</t>
+        </is>
+      </c>
+      <c r="N42" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>Proyecto integral de captación de ingresos municipales</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
+        </is>
+      </c>
+      <c r="J43" s="0">
+        <v>100</v>
+      </c>
+      <c r="K43" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L43" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M43" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7004</t>
+        </is>
+      </c>
+      <c r="N43" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>Gestión de canales de recaudación</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Impuestos respecto del total de Ingresos Propios</t>
+        </is>
+      </c>
+      <c r="J44" s="0">
+        <v>100</v>
+      </c>
+      <c r="K44" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L44" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M44" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7005</t>
+        </is>
+      </c>
+      <c r="N44" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>Incentivos Fiscales</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Impuestos respecto del total de Ingresos Propios</t>
+        </is>
+      </c>
+      <c r="J45" s="0">
+        <v>100</v>
+      </c>
+      <c r="K45" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L45" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M45" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7006</t>
+        </is>
+      </c>
+      <c r="N45" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>Reestructura de procesos y procedimientos </t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED</t>
+        </is>
+      </c>
+      <c r="J46" s="0">
+        <v>100</v>
+      </c>
+      <c r="K46" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L46" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M46" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7007</t>
+        </is>
+      </c>
+      <c r="N46" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>Programa Anual de Capacitación </t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED</t>
+        </is>
+      </c>
+      <c r="J47" s="0">
+        <v>100</v>
+      </c>
+      <c r="K47" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L47" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M47" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7008</t>
+        </is>
+      </c>
+      <c r="N47" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>Diseñar, desarrollar y realizar campañas y proyectos que fortalezcan y promuevan las tradiciones y costumbres queretanas y permitan el disfrute de los espacios históricos y culturales
+</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>Protocolo de Mejora Interna</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de indicadores de desempeño revisados con respecto al total de indicadores de desempeño de PbR</t>
+        </is>
+      </c>
+      <c r="J48" s="0">
+        <v>100</v>
+      </c>
+      <c r="K48" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="L48" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M48" s="0" t="inlineStr">
+        <is>
+          <t>Medio verifica Indicador 7009</t>
+        </is>
+      </c>
+      <c r="N48" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Garantizar el acceso a la salud integral</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>Apoyos escolares 2</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>Indicador de Apoyos escolares 2</t>
+        </is>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="I49" s="0" t="inlineStr">
+        <is>
+          <t>12334</t>
+        </is>
+      </c>
+      <c r="J49" s="0">
+        <v>100</v>
+      </c>
+      <c r="K49" s="0" t="inlineStr">
+        <is>
           <t>Mensual</t>
         </is>
       </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
-        <is>
-          <t>Medio verifica Indicador 7457</t>
-        </is>
-      </c>
-      <c r="N22" s="0" t="inlineStr">
-        <is>
-          <t>Prueba</t>
+      <c r="L49" s="0" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="M49" s="0" t="inlineStr">
+        <is>
+          <t>12434</t>
+        </is>
+      </c>
+      <c r="N49" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto Apoyos escolares 2</t>
         </is>
       </c>
     </row>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -143,7 +143,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>07-04-2022 02:11:56 pm</t>
+          <t>07-04-2022 03:16:35 pm</t>
         </is>
       </c>
     </row>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -114,6 +114,11 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="inlineStr">
@@ -143,7 +148,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>07-04-2022 03:16:35 pm</t>
+          <t>07-04-2022 05:09:48 pm</t>
         </is>
       </c>
     </row>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -28,11 +28,6 @@
     </font>
     <font>
       <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -73,14 +68,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -99,7 +91,7 @@
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Aeropuerto Internacional de Querétaro</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
@@ -114,18 +106,14 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Energía</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Clasificación Programática​</t>
         </is>
       </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -133,10 +121,9 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Economía Dinámica y Prosperidad Familiar</t>
         </is>
       </c>
     </row>
@@ -148,72 +135,72 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>07-04-2022 05:09:48 pm</t>
+          <t>07-05-2022 03:33:58 am</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Descripción del PP</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Resumen Narrativo</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Acción o Proyecto</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>Indicador</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>Dato de la variable</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>Línea Base</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>Meta</t>
         </is>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>Frecuencia</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>Avance</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>Medio de Verificación</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>Supuesto</t>
         </is>
@@ -222,27 +209,27 @@
     <row r="8" spans="1:13">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Energía</t>
+          <t>Desarrollo Aeroportuario</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Actividad Karen POA</t>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>Indicador K</t>
+          <t>Estudio de rutas potenciales de aviación comercial de pasajeros</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
@@ -252,7 +239,7 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>123</t>
         </is>
       </c>
       <c r="I8" s="0">
@@ -265,44 +252,44 @@
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>2232.8%</t>
+          <t>1000000%</t>
         </is>
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>medio</t>
+          <t>123</t>
         </is>
       </c>
       <c r="M8" s="0" t="inlineStr">
         <is>
-          <t>Actividad Karen POA</t>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Energía</t>
+          <t>Desarrollo Aeroportuario</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Incremento de pasajeros vs 2021</t>
         </is>
       </c>
       <c r="I9" s="0">
@@ -310,17 +297,122 @@
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>41.2757694217717%</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Infraestructura Vial</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Programa de Trabajo conjunto con entidades para implementación de radar en el AIQ.</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Instalación de radar</t>
+        </is>
+      </c>
+      <c r="I10" s="0">
+        <v>100</v>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
           <t>Trimestral</t>
         </is>
       </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>76.25%</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
-        <is>
-          <t>Tesk 001</t>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Infraestructura para Conectividad</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Programa de mejora de ingresos aeronáuticos</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Monto de ingresos aeronáuticos </t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="I11" s="0">
+        <v>100</v>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>108.507854479203%</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
         </is>
       </c>
     </row>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -28,6 +28,11 @@
     </font>
     <font>
       <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -68,11 +73,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -89,11 +97,6 @@
           <t>Organismo</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Aeropuerto Internacional de Querétaro</t>
-        </is>
-      </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
           <t>REPORTE AVANCE MIR</t>
@@ -121,9 +124,10 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Economía Dinámica y Prosperidad Familiar</t>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
         </is>
       </c>
     </row>
@@ -135,72 +139,72 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>07-05-2022 03:33:58 am</t>
+          <t>07-07-2022 04:41:36 pm</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Descripción del PP</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Resumen Narrativo</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Acción o Proyecto</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Indicador</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Dato de la variable</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Línea Base</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Meta</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Frecuencia</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Avance</t>
         </is>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Medio de Verificación</t>
         </is>
       </c>
-      <c r="M7" s="3" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Supuesto</t>
         </is>
@@ -209,132 +213,108 @@
     <row r="8" spans="1:13">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Desarrollo Aeroportuario</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+          <t>Desarrollo social e integral</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>Estudio de rutas potenciales de aviación comercial de pasajeros</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>A,B</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>Actividad ESZ Test </t>
         </is>
       </c>
       <c r="I8" s="0">
         <v>100</v>
       </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>1000000%</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>%</t>
         </is>
       </c>
       <c r="M8" s="0" t="inlineStr">
         <is>
-          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
+          <t>Actividad ESZ Test </t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Desarrollo Aeroportuario</t>
+          <t>Desarrollo Económico</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+          <t>1.2.1.1 Generar estudios e investigaciones sobre el desarrollo social en el estado.</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>Incremento de pasajeros vs 2021</t>
+          <t>Actividad KG 0407</t>
         </is>
       </c>
       <c r="I9" s="0">
         <v>100</v>
       </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>41.2757694217717%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="M9" s="0" t="inlineStr">
         <is>
-          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
+          <t>Actividad KG 0407</t>
         </is>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Infraestructura Vial</t>
+          <t>Energía</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Programa de Trabajo conjunto con entidades para implementación de radar en el AIQ.</t>
+          <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Instalación de radar</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" s="0">
@@ -347,49 +327,44 @@
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>230%</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>wefewf</t>
         </is>
       </c>
       <c r="M10" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Tesk 001</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Infraestructura para Conectividad</t>
+          <t>Desarrollo social e integral</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>6.2 Fomentar finanzas públicas sanas</t>
+          <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>Programa de mejora de ingresos aeronáuticos</t>
+          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Monto de ingresos aeronáuticos </t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>A,B</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>456</t>
+          <t>Sumatoria de POA alineados con el Plan Estatal de Desarrollo 2021-2027</t>
         </is>
       </c>
       <c r="I11" s="0">
@@ -402,17 +377,48 @@
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>108.507854479203%</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>456</t>
+          <t>135.714285714286%</t>
         </is>
       </c>
       <c r="M11" s="0" t="inlineStr">
         <is>
           <t>aa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Educación</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Prueba ACE 3</t>
+        </is>
+      </c>
+      <c r="I12" s="0">
+        <v>100</v>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>Prueba ACE 3</t>
         </is>
       </c>
     </row>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -33,15 +33,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <b/>
       <i/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,10 +77,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -124,10 +124,9 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Salud y Vida Digna</t>
         </is>
       </c>
     </row>
@@ -139,72 +138,72 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>07-09-2022 06:28:18 pm</t>
+          <t>07-10-2022 10:40:25 am</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Descripción del PP</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Resumen Narrativo</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Acción o Proyecto</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>Indicador</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>Dato de la variable</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>Línea Base</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>Meta</t>
         </is>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>Frecuencia</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>Avance</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>Medio de Verificación</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>Supuesto</t>
         </is>
@@ -213,37 +212,37 @@
     <row r="8" spans="1:13">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Desarrollo Económico</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
+          <t> Detección, diagnóstico, prevención, tratamiento y control de pacientes con cáncer de la mujer</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>Indicador ESZ</t>
+          <t>Porcentaje de mujeres de 35 a 64 años de edad sin seguridad social a quién se realizó detección de Virus del Papiloma Humano (VPH) con respecto al total de mujeres de 35 a 64 años de edad sin seguridad social</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>100,Número de mujeres de 35 a 64 años de edad sin seguridad social a quién se realizó detección de Virus del Papiloma Humano (VPH) ,Total de mujeres de 35 a 64 años de edad sin seguridad social</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="I8" s="0">
@@ -251,22 +250,22 @@
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Trimestral</t>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>1626.0162601626%</t>
+          <t>22.2222222222222%</t>
         </is>
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M8" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
+          <t>El Centro Nacional de Equidad de Género y Salud Reproductiva abastece los insumos necesarios de manera oportuna y suficiente, para realizar las detecciones a la población objetivo de la entidad.</t>
         </is>
       </c>
     </row>
@@ -278,32 +277,22 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Gobierno Digital</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
+          <t> Detección, diagnóstico, prevención, tratamiento y control de pacientes con cáncer de la mujer</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital con Total de etapas para la implementación de la plataforma digital</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>100,Número de etapas concluidas de la implementación de la plataforma digital,Total de etapas para la implementación de la plataforma digital</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Porcentaje de mujeres de 40 a 69 años de edad sin seguridad social a quién se realizó estudio de mastografía con respecto al total de mujeres de 40 a 69 años de edad sin seguridad social                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="I9" s="0">
@@ -316,24 +305,19 @@
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>480%</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>Bitácora digital de avances del proyecto</t>
+          <t>15.820698747528%</t>
         </is>
       </c>
       <c r="M9" s="0" t="inlineStr">
         <is>
-          <t>Cumplir para el mes de noviembre con las adecuaciones solicitadas por la Dirección de Adquisiciones</t>
+          <t>El Centro Nacional de Equidad de Género y Salud Reproductiva abastece los insumos necesarios de manera oportuna y suficiente, para realizar las detecciones a la población objetivo de la entidad.</t>
         </is>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -343,27 +327,22 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
+          <t>2.2.1 Propiciar la cultura inclusiva.</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
+          <t>Esta es una actividad de prueba</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de etapas concluidas del aplicativo web para el arrendamiento de inmuebles con respecto al total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>100,Número de etapas concluidas del aplicativo web para el arrendamiento de inmuebles,Total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
+          <t>Indicador de prueba</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I10" s="0">
@@ -371,22 +350,22 @@
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>Trimestral</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>156%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
-          <t>Bitácora digital de avances del proyecto</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M10" s="0" t="inlineStr">
         <is>
-          <t>Proporcionar una plataforma web del AJOD y del Estadio Corregidora para el mes de diciembre del presente.</t>
+          <t>Prueba</t>
         </is>
       </c>
     </row>
@@ -398,32 +377,33 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Planeación Institucional y participación ciudadana</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>Supervisar a Órganos Internos de Control.</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de supervisiones realizadas con respecto al total de supervisiones programadas para los Órganos Internos de Control</t>
+          <t>Implementar esquemas de prevención y detección oportuna de enfermedades graves y crónicas en la población sin seguridad social</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Porcentaje de población de 20 años y más sin seguridad social a quién se realizó detección de Diabetes Mellitus con respecto al total de la población de 20 años y más sin seguridad social
+</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>100,Número de supervisiones a los Órganos Internos de Control programadas en el periodo,Número de supervisiones a los Órganos Internos de Control realizadas en el periodo</t>
+          <t>100,Número de población de 20 años y más sin seguridad social a quién se realizó detección de Diabetes Mellitus,Total de la población de 20 años y más sin seguridad social</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="I11" s="0">
@@ -436,17 +416,17 @@
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>326.666666666667%</t>
+          <t>89.0909090909091%</t>
         </is>
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>Minutas de trabajo de las Supervisiones realizadas a los Órganos Internos de Control</t>
+          <t>Detecciones de Diabetes Mellitus/ Emite: Área de Estadística de la Dirección de Planeación/ Ubicación electrónica</t>
         </is>
       </c>
       <c r="M11" s="0" t="inlineStr">
         <is>
-          <t>Los Órganos Internos  de Control entregan la información y soportes documentales para la Supervisión.</t>
+          <t>La población objetivo participa en actividades de prevención, detección y atención de enfermedades.</t>
         </is>
       </c>
     </row>
@@ -458,55 +438,1555 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Planeación Institucional y participación ciudadana</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Verificar el cumplimiento en la presentación de la Declaración de inicio y/o conclusión en tiempo y forma.</t>
+          <t>Implementar esquemas de prevención y detección oportuna de enfermedades graves y crónicas en la población sin seguridad social</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma, con respecto al total de servidores públicos obligados</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>100,Número de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma,Total de servidores públicos obligados</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
+          <t>Porcentaje de pacientes sin seguridad social con Hipertensión Arterial Sistémica que logran la meta del tratamiento (controlados) con respecto al total de pacientes sin seguridad social con Hipertensión Arterial Sistémica                         </t>
+        </is>
+      </c>
+      <c r="I12" s="0">
+        <v>100</v>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>92.2535211267606%</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>La población objetivo participa en actividades de prevención, detección y atención de enfermedades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.1 Fomentar la educación y detección temprana para prevenir enfermedades crónico-degenerativas.</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Implementar esquemas de prevención y detección oportuna de enfermedades graves y crónicas en la población sin seguridad social</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de detecciones de Virus de Inmunodeficiencia Humana (VIH) en población clave con factores de riesgo de 15 a 49 años sin seguridad social con respecto al total de la población clave con factores de riesgo de 15 a 49 años sin seguridad social</t>
+        </is>
+      </c>
+      <c r="I13" s="0">
+        <v>100</v>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>26.5384615384615%</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>La población objetivo participa en actividades de prevención, detección y atención de enfermedades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.3 Proveer atención integral a la salud de los y las pacientes</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Incrementar la cobertura de atención médica </t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Tasa de médicos generales y especialistas en contacto con pacientes por cada 1000 habitantes (población sin seguridad social)</t>
+        </is>
+      </c>
+      <c r="I14" s="0">
+        <v>100</v>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud del Estado de Querétaro cuenta con los recursos humanos y financieros suficientes para el otorgamiento de la atención médica de primer y segundo nivel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.3 Proveer atención integral a la salud de los y las pacientes</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Incrementar la cobertura de atención médica </t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de población sin seguridad social residente en Querétaro, que recibe consulta médica de primera vez en el año en primer y segundo nivel de atención con respecto al total de población sin seguridad social residente en Querétaro</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>100,Número de población sin seguridad social residente en Querétaro, que recibe consulta médica de primera vez en el año en primer y segundo nivel de atención,Total de población sin seguridad social residente en Querétaro</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I15" s="0">
+        <v>100</v>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>Área de Estadística de la Dirección de Planeación/Ubicación electrónica</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>Servicios de Salud del Estado de Querétaro cuenta con los recursos humanos y financieros suficientes para el otorgamiento de la atención médica de primer y segundo nivel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Maximizar la utilización de recursos hospitalarios</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Promedio diario de intervenciones quirúrgicas por quirófano</t>
+        </is>
+      </c>
+      <c r="I16" s="0">
+        <v>100</v>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>105.726872246696%</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>Se atiende a la población que requiere atención de salud mental con el personal disponible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Maximizar la utilización de recursos hospitalarios</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Promedio de estudios de laboratorio por paciente en segundo nivel de atención médica de población sin seguridad social</t>
+        </is>
+      </c>
+      <c r="I17" s="0">
+        <v>100</v>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>94.3089430894309%</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>Se atiende a la población que requiere atención de salud mental con el personal disponible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Maximizar la utilización de recursos hospitalarios</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de nacidos vivos por cesárea de mujeres sin seguridad social en hospitales de segundo nivel de atención</t>
+        </is>
+      </c>
+      <c r="I18" s="0">
+        <v>100</v>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>104.485714285714%</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>Se atiende a la población que requiere atención de salud mental con el personal disponible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Maximizar la utilización de recursos hospitalarios</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de ocupación hospitalaria en segundo nivel de atención</t>
+        </is>
+      </c>
+      <c r="I19" s="0">
+        <v>100</v>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>87.8823529411765%</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>Se atiende a la población que requiere atención de salud mental con el personal disponible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Maximizar la utilización de recursos hospitalarios</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Promedio de atenciones de salud mental otorgadas a la población sin seguridad social con respecto al total de personal de salud mental</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>Número de atenciones de salud mental otorgadas a la población sin seguridad social,Total de personal de salud mental</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="I20" s="0">
+        <v>100</v>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>63.963963963964%</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>Sistema de Información en Salud (SIS)</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>Se atiende a la población que requiere atención de salud mental con el personal disponible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.6 Regularizar los esquemas de vacunación en la población.</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Prevención y atención  de enfermedades prevenibles en menores de 5 años </t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de niños y niñas de un año de edad, sin seguridad social residentes en Querétaro que cuentan con el esquema básico de vacunación completo con respecto al total de niños y niñas de un año de edad sin seguridad social residentes en Querétaro</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>100,Número de niños y niñas de un año de edad, sin seguridad social residentes en Querétaro que cuentan con el esquema básico de vacunación completo ,Total de niños y niñas de un año de edad, sin seguridad social residentes en Querétaro</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="I12" s="0">
-        <v>100</v>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
+      <c r="I21" s="0">
+        <v>100</v>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>4.875%</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>Dosis Aplicada (RDA)/Emite: Área de Estadística de la Dirección de Planeación/Ubicación electrónica</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>La población objetivo participa en el autocuidado de su salud y Servicios de Salud del Estado recibe los insumos necesarios de manera oportuna y suficiente de la federación para las acciones de prevención y promoción.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de conferencias de prevención de accidentes espacios recidientes en linea realizados</t>
+        </is>
+      </c>
+      <c r="I22" s="0">
+        <v>100</v>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de conferencias de salud emocional en linea realizadas</t>
+        </is>
+      </c>
+      <c r="I23" s="0">
+        <v>100</v>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>500%</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de conferencias de salud sexual y reproductiva para jóvenes de 12 a 29 años otorgadas </t>
+        </is>
+      </c>
+      <c r="I24" s="0">
+        <v>100</v>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>200%</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de conferencias nutricionales otorgadas</t>
+        </is>
+      </c>
+      <c r="I25" s="0">
+        <v>100</v>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t> Sumatoria de cursos de prevención de adicciones realizados</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>Número de  cursos de prevención de adicciones realizados</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="0">
+        <v>100</v>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>Plataforma de Secretaria de la Juventud https://sejuve.queretaro.gob.mx/out/home/sejuve</t>
+        </is>
+      </c>
+      <c r="M26" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de cursos de consumo responsable de alcohol realizados</t>
+        </is>
+      </c>
+      <c r="I27" s="0">
+        <v>100</v>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de cursos de prevención del suicidio realizados</t>
+        </is>
+      </c>
+      <c r="I28" s="0">
+        <v>100</v>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>137.5%</t>
+        </is>
+      </c>
+      <c r="M28" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de cursos de salud sexual y reproductiva para jóvenes de 12 a 29 años otorgadas </t>
+        </is>
+      </c>
+      <c r="I29" s="0">
+        <v>100</v>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="M29" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de cursos nutricionales otorgadas</t>
+        </is>
+      </c>
+      <c r="I30" s="0">
+        <v>100</v>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="M30" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de sesiones grupales terapéuticas realizadas </t>
+        </is>
+      </c>
+      <c r="I31" s="0">
+        <v>100</v>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M31" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas de salud sexual y reproductiva para jóvenes de 12 a 29 años otorgadas </t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>Número de consultas de salud sexual y reproductiva para jóvenes de 12 a 29 años otorgadas </t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I32" s="0">
+        <v>100</v>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>Plataforma de Secretaria de la Juventud https://sejuve.queretaro.gob.mx/out/home/sejuve</t>
+        </is>
+      </c>
+      <c r="M32" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de psicoterapias por medio de video conferencias otorgadas</t>
+        </is>
+      </c>
+      <c r="I33" s="0">
+        <v>100</v>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>175.555555555556%</t>
+        </is>
+      </c>
+      <c r="M33" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de psicoterapias presenciales otorgadas</t>
+        </is>
+      </c>
+      <c r="I34" s="0">
+        <v>100</v>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>104.666666666667%</t>
+        </is>
+      </c>
+      <c r="M34" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas nutricionales otorgadas</t>
+        </is>
+      </c>
+      <c r="I35" s="0">
+        <v>100</v>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>84.375%</t>
+        </is>
+      </c>
+      <c r="M35" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas psicológicas vía telefónica otorgadas</t>
+        </is>
+      </c>
+      <c r="I36" s="0">
+        <v>100</v>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K36" s="0" t="inlineStr">
+        <is>
+          <t>83.4%</t>
+        </is>
+      </c>
+      <c r="M36" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas psicológicas vía chat otorgadas</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>Número de consultas psicologicas vía chat otorgadas</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I37" s="0">
+        <v>100</v>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K37" s="0" t="inlineStr">
+        <is>
+          <t>43.85%</t>
+        </is>
+      </c>
+      <c r="L37" s="0" t="inlineStr">
+        <is>
+          <t>Plataforma de Secretaria de la Juventud https://sejuve.queretaro.gob.mx/out/home/sejuve</t>
+        </is>
+      </c>
+      <c r="M37" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>Esquemas de intervención (Programa Salud Integral)</t>
+        </is>
+      </c>
+      <c r="I38" s="0">
+        <v>100</v>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
         <is>
           <t>Mensual</t>
         </is>
       </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t>876.7%</t>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>Aplicación WEB SEMOD (Seguimiento de movimientos y declaraciones) y Padrón de Servidores Públicos Obligados</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="inlineStr">
-        <is>
-          <t>Los servidores públicos del Poder Ejecutivo del Estado de Querétaro conocen la obligación de dar cumplimiento a la presentación de la declaración de modificación de situación patrimonial y de interés de inicio y/o conclusión, así como la fecha límite de presentación. El sistema informático para la presentación de la declaración de modificación de situación patrimonial y de intereses, tiene las condiciones tecnológicas cubiertas. </t>
+      <c r="K38" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M38" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de consultas psicológicas vía presencial otorgadas</t>
+        </is>
+      </c>
+      <c r="I39" s="0">
+        <v>100</v>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K39" s="0" t="inlineStr">
+        <is>
+          <t>24.4444444444444%</t>
+        </is>
+      </c>
+      <c r="M39" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>Intervenciones Totales (Programa Salud Mental)</t>
+        </is>
+      </c>
+      <c r="I40" s="0">
+        <v>100</v>
+      </c>
+      <c r="J40" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="K40" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M40" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.2 Realizar actividades enfocadas en el cuidado de la salud mental.</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>Programas de Salud SEJUVE (Programa de Salud Integral y Programa de Salud Mental)</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>Personas Atendidas Totales (Programa Salud Mental)</t>
+        </is>
+      </c>
+      <c r="I41" s="0">
+        <v>100</v>
+      </c>
+      <c r="J41" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="K41" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M41" s="0" t="inlineStr">
+        <is>
+          <t>Que no se cuente con solicitudes de servicio, Que no se cuente con el personal capacitado</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Salud</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>1.1.5.3 Implementar y difundir estrategias para la disminución de los riesgos para la salud.</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>Visitas y verificaciones sanitarias a establecimientos de servicio de alimentos</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de establecimientos de servicio de alimentos con condiciones sanitarias seguras con respecto al total de establecimientos de servicio de alimentos</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>100,Número de establecimientos de servicio de alimentos con condiciones sanitarias seguras,Total de establecimientos de servicio de alimentos</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I42" s="0">
+        <v>100</v>
+      </c>
+      <c r="J42" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="K42" s="0" t="inlineStr">
+        <is>
+          <t>294.633929563382%</t>
+        </is>
+      </c>
+      <c r="L42" s="0" t="inlineStr">
+        <is>
+          <t>Verificaciones Sanitarias del período/Emite: Subdirección de Información y Manejo de Riesgos de la Dirección de Protección Contra Riesgos Sanitarios/Ubicación electrónica</t>
+        </is>
+      </c>
+      <c r="M42" s="0" t="inlineStr">
+        <is>
+          <t>Las instituciones publicas y privadas participan en la mejora de los servicios que se otorgan en el Estado de Querétaro en pro de cuidado la salud de los queretanos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Agua</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>1.2.1.1 Generar estudios e investigaciones sobre el desarrollo social en el estado.</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>ejem</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>ejem</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>100,Ejecutados,Planeados</t>
+        </is>
+      </c>
+      <c r="H43" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I43" s="0">
+        <v>100</v>
+      </c>
+      <c r="J43" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="K43" s="0" t="inlineStr">
+        <is>
+          <t>150%</t>
+        </is>
+      </c>
+      <c r="L43" s="0" t="inlineStr">
+        <is>
+          <t>Reporte</t>
+        </is>
+      </c>
+      <c r="M43" s="0" t="inlineStr">
+        <is>
+          <t>ejem</t>
         </is>
       </c>
     </row>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -143,7 +143,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 08:06:29 am</t>
+          <t>07-12-2022 02:09:38 pm</t>
         </is>
       </c>
     </row>
@@ -237,7 +237,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>Indicador ESZ</t>
+          <t>Indicador ESZ | Indicador ESZ</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
@@ -255,7 +255,7 @@
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Mensual | Mensual</t>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
@@ -265,37 +265,73 @@
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>123 | 123</t>
         </is>
       </c>
       <c r="M8" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
+          <t>Actividad ESZ Test | Actividad ESZ Test</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:13">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Infraestructura y Equipamiento en Seguridad</t>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>Actividad ESZ Test 1</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>Indicador B | Indicador B | Indicador A</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="I9" s="0">
         <v>100</v>
       </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>Ciclo escolar | Ciclo escolar | Mensual</t>
+        </is>
+      </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1219.512195122%</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>a | a | A</t>
         </is>
       </c>
       <c r="M9" s="0" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>Actividad ESZ Test 1 | Actividad ESZ Test 1 | Actividad ESZ Test 1</t>
         </is>
       </c>
     </row>
@@ -307,22 +343,33 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Deporte</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>2 Educación, Cultura y Deporte</t>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>Actividad hija SF 1</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Indicador hija 1 SF</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="I10" s="0">
@@ -330,62 +377,334 @@
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1219.51219512195%</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="M10" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>Actividad ESZ Test 1 | Actividad ESZ Test 1 | Actividad ESZ Test 1</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="0" t="inlineStr">
         <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Actividad hija SF 1</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Indicador hija 2 SF</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I11" s="0">
+        <v>100</v>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>Actividad ESZ Test 1 | Actividad ESZ Test 1 | Actividad ESZ Test 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Actividad hija SF 1</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Indicador hija 3 SF</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I12" s="0">
+        <v>100</v>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>Ciclo escolar</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>Actividad ESZ Test 1 | Actividad ESZ Test 1 | Actividad ESZ Test 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Infraestructura y Equipamiento en Seguridad</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Actividad hija SF 1</t>
+        </is>
+      </c>
+      <c r="I13" s="0">
+        <v>100</v>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>Actividad hija SF 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Deporte</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>2 Educación, Cultura y Deporte</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="I14" s="0">
+        <v>100</v>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>Diario | Diario | Diario</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>123 | 123 | 123</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios | Aprovechar los recursos propios | Aprovechar los recursos propios</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Empleo</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>5 Paz y Respeto a la Ley</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Arranque del Sistema</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje test</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I15" s="0">
+        <v>100</v>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral | Trimestral | Trimestral | Trimestral | Trimestral | Trimestral | Mensual</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>aa | aa | aa | aa | aa | aa | aaa</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>AA | AA | AA | AA | AA | AA | AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>Infraestructura para Conectividad</t>
         </is>
       </c>
-      <c r="C11" s="0" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>1 Salud y Vida Digna</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>Balance Presupuestario</t>
         </is>
       </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>Calificación crediticia de la Entidad</t>
-        </is>
-      </c>
-      <c r="I11" s="0">
-        <v>100</v>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t>Anual</t>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="I16" s="0">
+        <v>100</v>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>Anual | Anual | Anual</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="M11" s="0" t="inlineStr">
-        <is>
-          <t>Supuesto</t>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>Supuesto | Supuesto | Supuesto</t>
         </is>
       </c>
     </row>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -143,7 +143,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 02:09:38 pm</t>
+          <t>07-12-2022 03:06:46 pm</t>
         </is>
       </c>
     </row>
@@ -227,27 +227,27 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
+          <t>ACTIVIDAD PADRE SF</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>Indicador ESZ | Indicador ESZ</t>
+          <t>INDICADOR SF 1</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>456</t>
         </is>
       </c>
       <c r="I8" s="0">
@@ -255,7 +255,7 @@
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>Mensual | Mensual</t>
+          <t>Decenal</t>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
@@ -265,19 +265,19 @@
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>123 | 123</t>
+          <t>MEDIO TEST</t>
         </is>
       </c>
       <c r="M8" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test | Actividad ESZ Test</t>
+          <t>ACTIVIDAD PADRE SF</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -285,20 +285,19 @@
           <t>Desarrollo Económico</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test 1</t>
+          <t>Actividad ESZ Test</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Indicador B | Indicador B | Indicador A</t>
+          <t>Indicador ESZ | Indicador ESZ</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
@@ -316,83 +315,47 @@
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>Ciclo escolar | Ciclo escolar | Mensual</t>
+          <t>Mensual | Mensual</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>1219.512195122%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>a | a | A</t>
+          <t>123 | 123</t>
         </is>
       </c>
       <c r="M9" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test 1 | Actividad ESZ Test 1 | Actividad ESZ Test 1</t>
+          <t>Actividad ESZ Test | Actividad ESZ Test</t>
         </is>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+          <t>Infraestructura y Equipamiento en Seguridad</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Actividad hija SF 1</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>Indicador hija 1 SF</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
         </is>
       </c>
       <c r="I10" s="0">
         <v>100</v>
       </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>1219.51219512195%</t>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M10" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test 1 | Actividad ESZ Test 1 | Actividad ESZ Test 1</t>
+          <t>Actividad hija SF 1</t>
         </is>
       </c>
     </row>
@@ -404,23 +367,22 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+          <t>Deporte</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>2 Educación, Cultura y Deporte</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Indicador hija 2 SF</t>
+          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
@@ -430,7 +392,7 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>456</t>
         </is>
       </c>
       <c r="I11" s="0">
@@ -438,60 +400,49 @@
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Diario | Diario | Diario</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>123 | 123 | 123</t>
         </is>
       </c>
       <c r="M11" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test 1 | Actividad ESZ Test 1 | Actividad ESZ Test 1</t>
+          <t>Aprovechar los recursos propios | Aprovechar los recursos propios | Aprovechar los recursos propios</t>
         </is>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
+          <t>Infraestructura para Conectividad</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>Balance Presupuestario</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>Indicador hija 3 SF</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
         </is>
       </c>
       <c r="I12" s="0">
@@ -499,210 +450,15 @@
       </c>
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>Ciclo escolar</t>
+          <t>Anual | Anual | Anual</t>
         </is>
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M12" s="0" t="inlineStr">
-        <is>
-          <t>Actividad ESZ Test 1 | Actividad ESZ Test 1 | Actividad ESZ Test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>Infraestructura y Equipamiento en Seguridad</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Actividad hija SF 1</t>
-        </is>
-      </c>
-      <c r="I13" s="0">
-        <v>100</v>
-      </c>
-      <c r="K13" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="inlineStr">
-        <is>
-          <t>Actividad hija SF 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>Deporte</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>2 Educación, Cultura y Deporte</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Aprovechar los recursos propios</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="I14" s="0">
-        <v>100</v>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
-        <is>
-          <t>Diario | Diario | Diario</t>
-        </is>
-      </c>
-      <c r="K14" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>123 | 123 | 123</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="inlineStr">
-        <is>
-          <t>Aprovechar los recursos propios | Aprovechar los recursos propios | Aprovechar los recursos propios</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>Empleo</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>5 Paz y Respeto a la Ley</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>Arranque del Sistema</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022 | Porcentaje test</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I15" s="0">
-        <v>100</v>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
-        <is>
-          <t>Trimestral | Trimestral | Trimestral | Trimestral | Trimestral | Trimestral | Mensual</t>
-        </is>
-      </c>
-      <c r="K15" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>aa | aa | aa | aa | aa | aa | aaa</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="inlineStr">
-        <is>
-          <t>AA | AA | AA | AA | AA | AA | AA</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>Infraestructura para Conectividad</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>1 Salud y Vida Digna</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>Balance Presupuestario</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
-        </is>
-      </c>
-      <c r="I16" s="0">
-        <v>100</v>
-      </c>
-      <c r="J16" s="0" t="inlineStr">
-        <is>
-          <t>Anual | Anual | Anual</t>
-        </is>
-      </c>
-      <c r="K16" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M16" s="0" t="inlineStr">
         <is>
           <t>Supuesto | Supuesto | Supuesto</t>
         </is>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -114,6 +114,11 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -121,6 +126,11 @@
           <t>Clasificación Programática​</t>
         </is>
       </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Programable</t>
+        </is>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -143,7 +153,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 03:06:46 pm</t>
+          <t>07-12-2022 06:47:36 pm</t>
         </is>
       </c>
     </row>
@@ -227,50 +237,25 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>1 Salud y Vida Digna</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>ACTIVIDAD PADRE SF</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>INDICADOR SF 1</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>456</t>
+          <t>ACTIVIDAD AGLOMERADO 3</t>
         </is>
       </c>
       <c r="I8" s="0">
         <v>100</v>
       </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>Decenal</t>
-        </is>
-      </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>MEDIO TEST</t>
-        </is>
-      </c>
       <c r="M8" s="0" t="inlineStr">
         <is>
-          <t>ACTIVIDAD PADRE SF</t>
+          <t>ACTIVIDAD AGLOMERADO 3</t>
         </is>
       </c>
     </row>
@@ -287,27 +272,27 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
+          <t>ACTIVIDAD AGLOMERADO 4</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Indicador ESZ | Indicador ESZ</t>
+          <t>INDICADOR PADRE AGLOMERADO 4</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="I9" s="0">
@@ -315,7 +300,7 @@
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>Mensual | Mensual</t>
+          <t>Bimestral</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
@@ -325,64 +310,99 @@
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>123 | 123</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M9" s="0" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test | Actividad ESZ Test</t>
+          <t>ACTIVIDAD AGLOMERADO 4</t>
         </is>
       </c>
     </row>
     <row r="10" spans="1:13">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Infraestructura y Equipamiento en Seguridad</t>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>ACTIVIDAD AGLOMERADO 4 HIJA</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO 4 HIJA</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>231</t>
         </is>
       </c>
       <c r="I10" s="0">
         <v>100</v>
       </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
       <c r="M10" s="0" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>ACTIVIDAD AGLOMERADO 4</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Deporte</t>
+          <t>Desarrollo Económico</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>2 Educación, Cultura y Deporte</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>ACTIVIDAD AGLOMERADO 4 HIJA</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
+          <t>INDICADOR AGLOMERADO 4 HIJA</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
@@ -392,7 +412,7 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>231</t>
         </is>
       </c>
       <c r="I11" s="0">
@@ -400,7 +420,7 @@
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>Diario | Diario | Diario</t>
+          <t>Semanal</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
@@ -410,57 +430,635 @@
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>123 | 123 | 123</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M11" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios | Aprovechar los recursos propios | Aprovechar los recursos propios</t>
+          <t>ACTIVIDAD AGLOMERADO 4 HIJA</t>
         </is>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="0" t="inlineStr">
         <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 HIJA</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO HIJA 2 | ACTIVIDAD AGLOMERADO 5 HIJA 2
+ | INDICADOR AGLOMERADO HIJA 2 | ACTIVIDAD AGLOMERADO 5 HIJA 2
+</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I12" s="0">
+        <v>100</v>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>Bimestral | Otro | Bimestral | Otro</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>A | A | A | A</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 HIJA | ACTIVIDAD AGLOMERADO 5 HIJA | ACTIVIDAD AGLOMERADO 5 HIJA | ACTIVIDAD AGLOMERADO 5 HIJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5 | INDICADOR AGLOMERADO PADRE 5</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="I13" s="0">
+        <v>100</v>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>Quinquenal | Quinquenal | Semanal | Semanal</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>AA | AA | MEDIO PADRE | MEDIO PADRE</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 HIJA</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 HIJA 2
+</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I14" s="0">
+        <v>100</v>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 HIJA</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO HIJA 2</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I15" s="0">
+        <v>100</v>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>Bimestral</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD POA SF</t>
+        </is>
+      </c>
+      <c r="I16" s="0">
+        <v>100</v>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD POA SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Actividad ESZ Test</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Indicador ESZ | Indicador ESZ</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I17" s="0">
+        <v>100</v>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>Mensual | Mensual</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>123 | 123</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>Actividad ESZ Test | Actividad ESZ Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>Infraestructura para Conectividad</t>
         </is>
       </c>
-      <c r="C12" s="0" t="inlineStr">
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Ejemplo Sin Nada Nuevo</t>
+        </is>
+      </c>
+      <c r="I18" s="0">
+        <v>100</v>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Ejemplo Sin Nada Nuevo</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Prueba EJE</t>
+        </is>
+      </c>
+      <c r="I19" s="0">
+        <v>100</v>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Prueba EJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Infraestructura y Equipamiento en Seguridad</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Actividad hija SF 1</t>
+        </is>
+      </c>
+      <c r="I20" s="0">
+        <v>100</v>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>Actividad hija SF 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Empleo</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Actividad sin mir</t>
+        </is>
+      </c>
+      <c r="I21" s="0">
+        <v>100</v>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>Actividad sin mir</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Empleo</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Actividad sin mir</t>
+        </is>
+      </c>
+      <c r="I22" s="0">
+        <v>100</v>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>Actividad sin mir</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Deporte</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>2 Educación, Cultura y Deporte</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="I23" s="0">
+        <v>100</v>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>Diario | Diario | Diario</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>123 | 123 | 123</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios | Aprovechar los recursos propios | Aprovechar los recursos propios</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Infraestructura para Conectividad</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
         <is>
           <t>1 Salud y Vida Digna</t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr">
+      <c r="D24" s="0" t="inlineStr">
         <is>
           <t>Balance Presupuestario</t>
         </is>
       </c>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="E24" s="0" t="inlineStr">
         <is>
           <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
         </is>
       </c>
-      <c r="I12" s="0">
-        <v>100</v>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
+      <c r="I24" s="0">
+        <v>100</v>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
         <is>
           <t>Anual | Anual | Anual</t>
         </is>
       </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="inlineStr">
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
         <is>
           <t>Supuesto | Supuesto | Supuesto</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>Centralizar la estrategia de recaudación</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales</t>
+        </is>
+      </c>
+      <c r="I25" s="0">
+        <v>100</v>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación</t>
         </is>
       </c>
     </row>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -43,8 +43,18 @@
       <b/>
       <i/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,6 +71,11 @@
         <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -73,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
@@ -81,6 +96,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -114,11 +133,6 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -126,11 +140,6 @@
           <t>Clasificación Programática​</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Programable</t>
-        </is>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -153,7 +162,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 06:47:36 pm</t>
+          <t>07-12-2022 09:03:54 pm</t>
         </is>
       </c>
     </row>
@@ -225,95 +234,102 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>Fin</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>1 Salud y Vida Digna</t>
         </is>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 3</t>
         </is>
       </c>
-      <c r="I8" s="0">
-        <v>100</v>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>100</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 3</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Fin</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
-      <c r="D9" s="0" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 4</t>
         </is>
       </c>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>INDICADOR PADRE AGLOMERADO 4</t>
         </is>
       </c>
-      <c r="F9" s="0" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H9" s="0" t="inlineStr">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="I9" s="0">
-        <v>100</v>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
+      <c r="I9" s="5">
+        <v>100</v>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>Bimestral</t>
         </is>
       </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="M9" s="0" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 4</t>
         </is>
@@ -380,182 +396,185 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 4 HIJA</t>
         </is>
       </c>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>INDICADOR AGLOMERADO 4 HIJA</t>
         </is>
       </c>
-      <c r="F11" s="0" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="I11" s="0">
-        <v>100</v>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
+      <c r="I11" s="5">
+        <v>100</v>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>Semanal</t>
         </is>
       </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="M11" s="0" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 4 HIJA</t>
         </is>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Fin</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 5 HIJA</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>INDICADOR AGLOMERADO HIJA 2 | ACTIVIDAD AGLOMERADO 5 HIJA 2
- | INDICADOR AGLOMERADO HIJA 2 | ACTIVIDAD AGLOMERADO 5 HIJA 2
-</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 HIJA 2
+ | ACTIVIDAD AGLOMERADO 5 HIJA 2
+ | INDICADOR AGLOMERADO HIJA 2 | INDICADOR AGLOMERADO HIJA 2</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>A,B</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="I12" s="0">
-        <v>100</v>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
-        <is>
-          <t>Bimestral | Otro | Bimestral | Otro</t>
-        </is>
-      </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="I12" s="5">
+        <v>100</v>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>Otro | Otro | Bimestral | Bimestral</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
         <is>
           <t>A | A | A | A</t>
         </is>
       </c>
-      <c r="M12" s="0" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 5 HIJA | ACTIVIDAD AGLOMERADO 5 HIJA | ACTIVIDAD AGLOMERADO 5 HIJA | ACTIVIDAD AGLOMERADO 5 HIJA</t>
         </is>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Fin</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
         </is>
       </c>
-      <c r="D13" s="0" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
         </is>
       </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5 | INDICADOR AGLOMERADO PADRE 5</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO PADRE 5 | INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>A,B</t>
         </is>
       </c>
-      <c r="H13" s="0" t="inlineStr">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>3434</t>
         </is>
       </c>
-      <c r="I13" s="0">
-        <v>100</v>
-      </c>
-      <c r="J13" s="0" t="inlineStr">
-        <is>
-          <t>Quinquenal | Quinquenal | Semanal | Semanal</t>
-        </is>
-      </c>
-      <c r="K13" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>AA | AA | MEDIO PADRE | MEDIO PADRE</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="inlineStr">
+      <c r="I13" s="5">
+        <v>100</v>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>Semanal | Quinquenal | Quinquenal | Semanal</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>MEDIO PADRE | AA | AA | MEDIO PADRE</t>
+        </is>
+      </c>
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE</t>
         </is>
@@ -683,380 +702,616 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="0" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 HIJA</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>INDICADOR HIJA 6</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I16" s="5">
+        <v>100</v>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>MEDIO HIJA</t>
+        </is>
+      </c>
+      <c r="M16" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 HIJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>Fin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD POA SF</t>
-        </is>
-      </c>
-      <c r="I16" s="0">
-        <v>100</v>
-      </c>
-      <c r="K16" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M16" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD POA SF</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>1 Salud y Vida Digna</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>Actividad ESZ Test</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>Indicador ESZ | Indicador ESZ</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 PADRE</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>INDICADOR PADRE 6 | INDICADOR PADRE 6</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>A,B</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I17" s="0">
-        <v>100</v>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
-        <is>
-          <t>Mensual | Mensual</t>
-        </is>
-      </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>123 | 123</t>
-        </is>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
-        <is>
-          <t>Actividad ESZ Test | Actividad ESZ Test</t>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I17" s="5">
+        <v>100</v>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>Semanal | Semanal</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>423 | 423</t>
+        </is>
+      </c>
+      <c r="M17" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 PADRE | ACTIVIDAD AGLOMERADO 6 PADRE</t>
         </is>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="0" t="inlineStr">
         <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 HIJA</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR HIJA 6</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I18" s="0">
+        <v>100</v>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>MEDIO HIJA</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 PADRE | ACTIVIDAD AGLOMERADO 6 PADRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD POA SF</t>
+        </is>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <v>100</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD POA SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Actividad ESZ Test</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>Indicador ESZ | Indicador ESZ</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I20" s="5">
+        <v>100</v>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>Mensual | Mensual</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>123 | 123</t>
+        </is>
+      </c>
+      <c r="M20" s="5" t="inlineStr">
+        <is>
+          <t>Actividad ESZ Test | Actividad ESZ Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Infraestructura para Conectividad</t>
         </is>
       </c>
-      <c r="C18" s="0" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
-      <c r="D18" s="0" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Actividad Ejemplo Sin Nada Nuevo</t>
         </is>
       </c>
-      <c r="I18" s="0">
-        <v>100</v>
-      </c>
-      <c r="K18" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
+        <v>100</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>Actividad Ejemplo Sin Nada Nuevo</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="0" t="inlineStr">
+    <row r="22" spans="1:13">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
-      <c r="D19" s="0" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Actividad Prueba EJE</t>
         </is>
       </c>
-      <c r="I19" s="0">
-        <v>100</v>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <v>100</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>Actividad Prueba EJE</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="B20" s="0" t="inlineStr">
+    <row r="23" spans="1:13">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Infraestructura y Equipamiento en Seguridad</t>
         </is>
       </c>
-      <c r="D20" s="0" t="inlineStr">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Actividad hija SF 1</t>
         </is>
       </c>
-      <c r="I20" s="0">
-        <v>100</v>
-      </c>
-      <c r="K20" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <v>100</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>Actividad hija SF 1</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="B21" s="0" t="inlineStr">
+    <row r="24" spans="1:13">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Empleo</t>
         </is>
       </c>
-      <c r="D21" s="0" t="inlineStr">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Actividad sin mir</t>
         </is>
       </c>
-      <c r="I21" s="0">
-        <v>100</v>
-      </c>
-      <c r="K21" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
+        <v>100</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>Actividad sin mir</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="B22" s="0" t="inlineStr">
+    <row r="25" spans="1:13">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Empleo</t>
         </is>
       </c>
-      <c r="D22" s="0" t="inlineStr">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Actividad sin mir</t>
         </is>
       </c>
-      <c r="I22" s="0">
-        <v>100</v>
-      </c>
-      <c r="K22" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5">
+        <v>100</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>Actividad sin mir</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="0" t="inlineStr">
+    <row r="26" spans="1:13">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Deporte</t>
         </is>
       </c>
-      <c r="C23" s="0" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>2 Educación, Cultura y Deporte</t>
         </is>
       </c>
-      <c r="D23" s="0" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Aprovechar los recursos propios</t>
         </is>
       </c>
-      <c r="E23" s="0" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
         </is>
       </c>
-      <c r="F23" s="0" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H23" s="0" t="inlineStr">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>456</t>
         </is>
       </c>
-      <c r="I23" s="0">
-        <v>100</v>
-      </c>
-      <c r="J23" s="0" t="inlineStr">
+      <c r="I26" s="5">
+        <v>100</v>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>Diario | Diario | Diario</t>
         </is>
       </c>
-      <c r="K23" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L23" s="0" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
         <is>
           <t>123 | 123 | 123</t>
         </is>
       </c>
-      <c r="M23" s="0" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>Aprovechar los recursos propios | Aprovechar los recursos propios | Aprovechar los recursos propios</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="0" t="inlineStr">
+    <row r="27" spans="1:13">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Infraestructura para Conectividad</t>
         </is>
       </c>
-      <c r="C24" s="0" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>1 Salud y Vida Digna</t>
         </is>
       </c>
-      <c r="D24" s="0" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Balance Presupuestario</t>
         </is>
       </c>
-      <c r="E24" s="0" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
         </is>
       </c>
-      <c r="I24" s="0">
-        <v>100</v>
-      </c>
-      <c r="J24" s="0" t="inlineStr">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5">
+        <v>100</v>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>Anual | Anual | Anual</t>
         </is>
       </c>
-      <c r="K24" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M24" s="0" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>Supuesto | Supuesto | Supuesto</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="inlineStr">
+    <row r="28" spans="1:13">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Centralizar la estrategia de recaudación</t>
         </is>
       </c>
-      <c r="E25" s="0" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales</t>
         </is>
       </c>
-      <c r="I25" s="0">
-        <v>100</v>
-      </c>
-      <c r="J25" s="0" t="inlineStr">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
+        <v>100</v>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual</t>
         </is>
       </c>
-      <c r="K25" s="0" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M25" s="0" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación</t>
         </is>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -48,11 +48,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -73,7 +68,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC000"/>
+        <fgColor rgb="FFD9A8"/>
       </patternFill>
     </fill>
   </fills>
@@ -88,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
@@ -97,9 +92,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -162,7 +154,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 09:03:54 pm</t>
+          <t>07-12-2022 09:11:09 pm</t>
         </is>
       </c>
     </row>
@@ -398,7 +390,7 @@
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
@@ -408,28 +400,28 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>5 Paz y Respeto a la Ley</t>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD AGLOMERADO 4 HIJA</t>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>INDICADOR AGLOMERADO 4 HIJA</t>
+          <t>INDICADOR AGLOMERADO PADRE 5 | INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="I11" s="5">
@@ -437,7 +429,7 @@
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>Semanal</t>
+          <t>Semanal | Quinquenal | Quinquenal | Semanal</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
@@ -447,197 +439,194 @@
       </c>
       <c r="L11" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>MEDIO PADRE | AA | AA | MEDIO PADRE</t>
         </is>
       </c>
       <c r="M11" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD AGLOMERADO 4 HIJA</t>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE</t>
         </is>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>Fin</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>Desarrollo Económico</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="0" t="inlineStr">
         <is>
           <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 5 HIJA</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 5 HIJA 2
- | ACTIVIDAD AGLOMERADO 5 HIJA 2
- | INDICADOR AGLOMERADO HIJA 2 | INDICADOR AGLOMERADO HIJA 2</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>A,B</t>
-        </is>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I12" s="5">
-        <v>100</v>
-      </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>Otro | Otro | Bimestral | Bimestral</t>
-        </is>
-      </c>
-      <c r="K12" s="5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L12" s="5" t="inlineStr">
-        <is>
-          <t>A | A | A | A</t>
-        </is>
-      </c>
-      <c r="M12" s="5" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 5 HIJA | ACTIVIDAD AGLOMERADO 5 HIJA | ACTIVIDAD AGLOMERADO 5 HIJA | ACTIVIDAD AGLOMERADO 5 HIJA</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 5 PADRE</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>INDICADOR AGLOMERADO PADRE 5 | INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>A,B</t>
-        </is>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="inlineStr">
-        <is>
-          <t>3434</t>
-        </is>
-      </c>
-      <c r="I13" s="5">
-        <v>100</v>
-      </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t>Semanal | Quinquenal | Quinquenal | Semanal</t>
-        </is>
-      </c>
-      <c r="K13" s="5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L13" s="5" t="inlineStr">
-        <is>
-          <t>MEDIO PADRE | AA | AA | MEDIO PADRE</t>
-        </is>
-      </c>
-      <c r="M13" s="5" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 5 HIJA</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 5 HIJA 2
 </t>
         </is>
       </c>
-      <c r="F14" s="0" t="inlineStr">
+      <c r="F12" s="0" t="inlineStr">
         <is>
           <t>A,B</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
+      <c r="H12" s="0" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="I14" s="0">
-        <v>100</v>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
+      <c r="I12" s="0">
+        <v>100</v>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
         <is>
           <t>Otro</t>
         </is>
       </c>
-      <c r="K14" s="0" t="inlineStr">
+      <c r="K12" s="0" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="L14" s="0" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="M14" s="0" t="inlineStr">
+      <c r="M12" s="0" t="inlineStr">
         <is>
           <t>ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 HIJA</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO HIJA 2</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I13" s="0">
+        <v>100</v>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>Bimestral</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 PADRE</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>INDICADOR PADRE 6 | INDICADOR PADRE 6</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I14" s="5">
+        <v>100</v>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>Semanal | Semanal</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>423 | 423</t>
+        </is>
+      </c>
+      <c r="M14" s="5" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 6 PADRE | ACTIVIDAD AGLOMERADO 6 PADRE</t>
         </is>
       </c>
     </row>
@@ -654,22 +643,22 @@
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+          <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>ACTIVIDAD AGLOMERADO 5 HIJA</t>
+          <t>ACTIVIDAD AGLOMERADO 6 HIJA</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>INDICADOR AGLOMERADO HIJA 2</t>
+          <t>INDICADOR HIJA 6</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
@@ -682,7 +671,7 @@
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>Bimestral</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="K15" s="0" t="inlineStr">
@@ -692,19 +681,19 @@
       </c>
       <c r="L15" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>MEDIO HIJA</t>
         </is>
       </c>
       <c r="M15" s="0" t="inlineStr">
         <is>
-          <t>ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE | ACTIVIDAD AGLOMERADO 5 PADRE</t>
+          <t>ACTIVIDAD AGLOMERADO 6 PADRE | ACTIVIDAD AGLOMERADO 6 PADRE</t>
         </is>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
@@ -714,51 +703,31 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD AGLOMERADO 6 HIJA</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>INDICADOR HIJA 6</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>ACTIVIDAD POA SF</t>
+        </is>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="5">
         <v>100</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>Otro</t>
-        </is>
-      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="5" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>MEDIO HIJA</t>
-        </is>
-      </c>
+      <c r="L16" s="5"/>
       <c r="M16" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD AGLOMERADO 6 HIJA</t>
+          <t>ACTIVIDAD POA SF</t>
         </is>
       </c>
     </row>
@@ -775,17 +744,17 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>1 Salud y Vida Digna</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD AGLOMERADO 6 PADRE</t>
+          <t>Actividad ESZ Test</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>INDICADOR PADRE 6 | INDICADOR PADRE 6</t>
+          <t>Indicador ESZ | Indicador ESZ</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
@@ -796,7 +765,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>123</t>
         </is>
       </c>
       <c r="I17" s="5">
@@ -804,7 +773,7 @@
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>Semanal | Semanal</t>
+          <t>Mensual | Mensual</t>
         </is>
       </c>
       <c r="K17" s="5" t="inlineStr">
@@ -814,79 +783,60 @@
       </c>
       <c r="L17" s="5" t="inlineStr">
         <is>
-          <t>423 | 423</t>
+          <t>123 | 123</t>
         </is>
       </c>
       <c r="M17" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD AGLOMERADO 6 PADRE | ACTIVIDAD AGLOMERADO 6 PADRE</t>
+          <t>Actividad ESZ Test | Actividad ESZ Test</t>
         </is>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>6 Gobierno Ciudadano</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 6 HIJA</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>INDICADOR HIJA 6</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I18" s="0">
-        <v>100</v>
-      </c>
-      <c r="J18" s="0" t="inlineStr">
-        <is>
-          <t>Otro</t>
-        </is>
-      </c>
-      <c r="K18" s="0" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>MEDIO HIJA</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>ACTIVIDAD AGLOMERADO 6 PADRE | ACTIVIDAD AGLOMERADO 6 PADRE</t>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Infraestructura para Conectividad</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Actividad Ejemplo Sin Nada Nuevo</t>
+        </is>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
+        <v>100</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="inlineStr">
+        <is>
+          <t>Actividad Ejemplo Sin Nada Nuevo</t>
         </is>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
@@ -896,12 +846,12 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD POA SF</t>
+          <t>Actividad Prueba EJE</t>
         </is>
       </c>
       <c r="E19" s="5"/>
@@ -920,90 +870,54 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD POA SF</t>
+          <t>Actividad Prueba EJE</t>
         </is>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>1 Salud y Vida Digna</t>
-        </is>
-      </c>
+          <t>Infraestructura y Equipamiento en Seguridad</t>
+        </is>
+      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>Indicador ESZ | Indicador ESZ</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>A,B</t>
-        </is>
-      </c>
+          <t>Actividad hija SF 1</t>
+        </is>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="5">
         <v>100</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>Mensual | Mensual</t>
-        </is>
-      </c>
+      <c r="J20" s="5"/>
       <c r="K20" s="5" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="L20" s="5" t="inlineStr">
-        <is>
-          <t>123 | 123</t>
-        </is>
-      </c>
+      <c r="L20" s="5"/>
       <c r="M20" s="5" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test | Actividad ESZ Test</t>
+          <t>Actividad hija SF 1</t>
         </is>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>Infraestructura para Conectividad</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
-        </is>
-      </c>
+          <t>Empleo</t>
+        </is>
+      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>Actividad Ejemplo Sin Nada Nuevo</t>
+          <t>Actividad sin mir</t>
         </is>
       </c>
       <c r="E21" s="5"/>
@@ -1022,29 +936,21 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="inlineStr">
         <is>
-          <t>Actividad Ejemplo Sin Nada Nuevo</t>
+          <t>Actividad sin mir</t>
         </is>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
-        </is>
-      </c>
+          <t>Empleo</t>
+        </is>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>Actividad Prueba EJE</t>
+          <t>Actividad sin mir</t>
         </is>
       </c>
       <c r="E22" s="5"/>
@@ -1063,64 +969,108 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="inlineStr">
         <is>
-          <t>Actividad Prueba EJE</t>
+          <t>Actividad sin mir</t>
         </is>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>Infraestructura y Equipamiento en Seguridad</t>
-        </is>
-      </c>
-      <c r="C23" s="5"/>
+          <t>Deporte</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>2 Educación, Cultura y Deporte</t>
+        </is>
+      </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
-        </is>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+          <t>Aprovechar los recursos propios</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
       <c r="I23" s="5">
         <v>100</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>Diario | Diario | Diario</t>
+        </is>
+      </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5" t="inlineStr">
+        <is>
+          <t>123 | 123 | 123</t>
+        </is>
+      </c>
       <c r="M23" s="5" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>Aprovechar los recursos propios | Aprovechar los recursos propios | Aprovechar los recursos propios</t>
         </is>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>Empleo</t>
-        </is>
-      </c>
-      <c r="C24" s="5"/>
+          <t>Infraestructura para Conectividad</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
+      </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>Actividad sin mir</t>
-        </is>
-      </c>
-      <c r="E24" s="5"/>
+          <t>Balance Presupuestario</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5">
         <v>100</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>Anual | Anual | Anual</t>
+        </is>
+      </c>
       <c r="K24" s="5" t="inlineStr">
         <is>
           <t>0%</t>
@@ -1129,7 +1079,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="inlineStr">
         <is>
-          <t>Actividad sin mir</t>
+          <t>Supuesto | Supuesto | Supuesto</t>
         </is>
       </c>
     </row>
@@ -1137,23 +1087,31 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>Empleo</t>
+          <t>Desarrollo Económico</t>
         </is>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>Actividad sin mir</t>
-        </is>
-      </c>
-      <c r="E25" s="5"/>
+          <t>Centralizar la estrategia de recaudación</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales</t>
+        </is>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5">
         <v>100</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual</t>
+        </is>
+      </c>
       <c r="K25" s="5" t="inlineStr">
         <is>
           <t>0%</t>
@@ -1161,157 +1119,6 @@
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="inlineStr">
-        <is>
-          <t>Actividad sin mir</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>Deporte</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>2 Educación, Cultura y Deporte</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>Aprovechar los recursos propios</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="I26" s="5">
-        <v>100</v>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>Diario | Diario | Diario</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L26" s="5" t="inlineStr">
-        <is>
-          <t>123 | 123 | 123</t>
-        </is>
-      </c>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>Aprovechar los recursos propios | Aprovechar los recursos propios | Aprovechar los recursos propios</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>Infraestructura para Conectividad</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>1 Salud y Vida Digna</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>Balance Presupuestario</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
-        </is>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5">
-        <v>100</v>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>Anual | Anual | Anual</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>Supuesto | Supuesto | Supuesto</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>Centralizar la estrategia de recaudación</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales</t>
-        </is>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5">
-        <v>100</v>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación</t>
         </is>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -154,7 +154,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 09:11:09 pm</t>
+          <t>07-12-2022 10:17:42 pm</t>
         </is>
       </c>
     </row>
@@ -410,7 +410,7 @@
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>INDICADOR AGLOMERADO PADRE 5 | INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5</t>
+          <t>INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5 | INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
@@ -429,7 +429,7 @@
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>Semanal | Quinquenal | Quinquenal | Semanal</t>
+          <t>Quinquenal | Semanal | Quinquenal | Semanal</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="L11" s="5" t="inlineStr">
         <is>
-          <t>MEDIO PADRE | AA | AA | MEDIO PADRE</t>
+          <t>AA | MEDIO PADRE | AA | MEDIO PADRE</t>
         </is>
       </c>
       <c r="M11" s="5" t="inlineStr">
@@ -691,81 +691,93 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>6 Gobierno Ciudadano</t>
-        </is>
-      </c>
+          <t>Educación</t>
+        </is>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD POA SF</t>
-        </is>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+          <t>ACTIVIDAD AGLOMERADO 7 HIJA</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>AGLOMERADO 7 HIJA 2 | AGLOMERADO 7 HIJA | AGLOMERADO 7 HIJA</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>31221</t>
+        </is>
+      </c>
       <c r="I16" s="5">
         <v>100</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>Ciclo escolar | Diario | Diario</t>
+        </is>
+      </c>
       <c r="K16" s="5" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>A | aaa | aaa</t>
+        </is>
+      </c>
       <c r="M16" s="5" t="inlineStr">
         <is>
-          <t>ACTIVIDAD POA SF</t>
+          <t>ACTIVIDAD AGLOMERADO 7 HIJA | ACTIVIDAD AGLOMERADO 7 HIJA | ACTIVIDAD AGLOMERADO 7 HIJA</t>
         </is>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>Desarrollo Económico</t>
+          <t>Educación</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test</t>
+          <t>ACTIVIDAD AGLOMERADO 7 PADRE</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Indicador ESZ | Indicador ESZ</t>
+          <t>Indicador 7 padre</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>345</t>
         </is>
       </c>
       <c r="I17" s="5">
@@ -773,7 +785,7 @@
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>Mensual | Mensual</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="K17" s="5" t="inlineStr">
@@ -783,34 +795,34 @@
       </c>
       <c r="L17" s="5" t="inlineStr">
         <is>
-          <t>123 | 123</t>
+          <t>eqwe</t>
         </is>
       </c>
       <c r="M17" s="5" t="inlineStr">
         <is>
-          <t>Actividad ESZ Test | Actividad ESZ Test</t>
+          <t>ACTIVIDAD AGLOMERADO 7 PADRE</t>
         </is>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>Infraestructura para Conectividad</t>
+          <t>Desarrollo Económico</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+          <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>Actividad Ejemplo Sin Nada Nuevo</t>
+          <t>ACTIVIDAD POA SF</t>
         </is>
       </c>
       <c r="E18" s="5"/>
@@ -829,62 +841,90 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="inlineStr">
         <is>
-          <t>Actividad Ejemplo Sin Nada Nuevo</t>
+          <t>ACTIVIDAD POA SF</t>
         </is>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="inlineStr">
         <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Actividad ESZ Test</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>Indicador ESZ | Indicador ESZ</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I19" s="5">
+        <v>100</v>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>Mensual | Mensual</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t>123 | 123</t>
+        </is>
+      </c>
+      <c r="M19" s="5" t="inlineStr">
+        <is>
+          <t>Actividad ESZ Test | Actividad ESZ Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>Desarrollo Económico</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Infraestructura para Conectividad</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Actividad Prueba EJE</t>
-        </is>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5">
-        <v>100</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="inlineStr">
-        <is>
-          <t>Actividad Prueba EJE</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>Infraestructura y Equipamiento en Seguridad</t>
-        </is>
-      </c>
-      <c r="C20" s="5"/>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>Actividad Ejemplo Sin Nada Nuevo</t>
         </is>
       </c>
       <c r="E20" s="5"/>
@@ -903,21 +943,29 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="inlineStr">
         <is>
-          <t>Actividad hija SF 1</t>
+          <t>Actividad Ejemplo Sin Nada Nuevo</t>
         </is>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>Empleo</t>
-        </is>
-      </c>
-      <c r="C21" s="5"/>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
+        </is>
+      </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>Actividad sin mir</t>
+          <t>Actividad Prueba EJE</t>
         </is>
       </c>
       <c r="E21" s="5"/>
@@ -936,7 +984,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="inlineStr">
         <is>
-          <t>Actividad sin mir</t>
+          <t>Actividad Prueba EJE</t>
         </is>
       </c>
     </row>
@@ -944,13 +992,13 @@
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>Empleo</t>
+          <t>Infraestructura y Equipamiento en Seguridad</t>
         </is>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>Actividad sin mir</t>
+          <t>Actividad hija SF 1</t>
         </is>
       </c>
       <c r="E22" s="5"/>
@@ -969,108 +1017,64 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="inlineStr">
         <is>
+          <t>Actividad hija SF 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Empleo</t>
+        </is>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
           <t>Actividad sin mir</t>
         </is>
       </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>Deporte</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>2 Educación, Cultura y Deporte</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>Aprovechar los recursos propios</t>
-        </is>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
-        </is>
-      </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="5">
         <v>100</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
-        <is>
-          <t>Diario | Diario | Diario</t>
-        </is>
-      </c>
+      <c r="J23" s="5"/>
       <c r="K23" s="5" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="L23" s="5" t="inlineStr">
-        <is>
-          <t>123 | 123 | 123</t>
-        </is>
-      </c>
+      <c r="L23" s="5"/>
       <c r="M23" s="5" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios | Aprovechar los recursos propios | Aprovechar los recursos propios</t>
+          <t>Actividad sin mir</t>
         </is>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>Infraestructura para Conectividad</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>1 Salud y Vida Digna</t>
-        </is>
-      </c>
+          <t>Empleo</t>
+        </is>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>Balance Presupuestario</t>
-        </is>
-      </c>
-      <c r="E24" s="5" t="inlineStr">
-        <is>
-          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
-        </is>
-      </c>
+          <t>Actividad sin mir</t>
+        </is>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5">
         <v>100</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
-        <is>
-          <t>Anual | Anual | Anual</t>
-        </is>
-      </c>
+      <c r="J24" s="5"/>
       <c r="K24" s="5" t="inlineStr">
         <is>
           <t>0%</t>
@@ -1079,46 +1083,156 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="inlineStr">
         <is>
+          <t>Actividad sin mir</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Deporte</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>2 Educación, Cultura y Deporte</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST | Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="I25" s="5">
+        <v>100</v>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>Diario | Diario | Diario</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>123 | 123 | 123</t>
+        </is>
+      </c>
+      <c r="M25" s="5" t="inlineStr">
+        <is>
+          <t>Aprovechar los recursos propios | Aprovechar los recursos propios | Aprovechar los recursos propios</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Infraestructura para Conectividad</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Balance Presupuestario</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>Calificación crediticia de la Entidad | Calificación crediticia de la Entidad | Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
+        <v>100</v>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>Anual | Anual | Anual</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5" t="inlineStr">
+        <is>
           <t>Supuesto | Supuesto | Supuesto</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="inlineStr">
+    <row r="27" spans="1:13">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Desarrollo Económico</t>
         </is>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Centralizar la estrategia de recaudación</t>
         </is>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales | Monto acumulado de contribuciones estatales</t>
         </is>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5">
-        <v>100</v>
-      </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5">
+        <v>100</v>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual | Anual</t>
         </is>
       </c>
-      <c r="K25" s="5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación | Centralizar la estrategia de recaudación</t>
         </is>

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -172,7 +172,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>09-22-2022 03:43:59 pm</t>
+          <t>09-22-2022 03:50:05 pm</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>1250%</t>
+          <t>1250****</t>
         </is>
       </c>
       <c r="L12" s="0" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>9.96758508914101%</t>
+          <t>9.96758508914101****</t>
         </is>
       </c>
       <c r="L13" s="0" t="inlineStr">

--- a/public/reportes/avancemir.xlsx
+++ b/public/reportes/avancemir.xlsx
@@ -172,7 +172,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>09-22-2022 03:50:05 pm</t>
+          <t>09-22-2022 04:28:10 pm</t>
         </is>
       </c>
     </row>
@@ -413,23 +413,23 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>Entrega de Tabletas a estudiantes destacados</t>
+          <t>Entrega de Computadoras</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>Tabletas entregadas a estudiantes</t>
+          <t>Entrega de Computadoras</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>TabletasEntregadas,TabletasTotales</t>
+          <t>Comprometidas,Entregadas</t>
         </is>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I11" s="5">
@@ -442,17 +442,17 @@
       </c>
       <c r="K11" s="5" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="L11" s="5" t="inlineStr">
         <is>
-          <t>Padrón de Beneficiarios</t>
+          <t>Entregas</t>
         </is>
       </c>
       <c r="M11" s="5" t="inlineStr">
         <is>
-          <t>Supuesto Entrega de Tabletas a estudiantes destacados</t>
+          <t>Entrega de Computadoras</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>1250****</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L12" s="0" t="inlineStr">
@@ -513,66 +513,128 @@
       </c>
       <c r="M12" s="0" t="inlineStr">
         <is>
-          <t>Supuesto Entrega de Tabletas a estudiantes destacados</t>
+          <t>Entrega de Computadoras</t>
         </is>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Desarrollo Económico</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="D13" s="0" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Entrega de Tabletas a estudiantes destacados</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Tabletas entregadas a estudiantes</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>TabletasEntregadas,TabletasTotales</t>
+        </is>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="5">
+        <v>100</v>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>Padrón de Beneficiarios</t>
+        </is>
+      </c>
+      <c r="M13" s="5" t="inlineStr">
+        <is>
+          <t>Supuesto Entrega de Tabletas a estudiantes destacados</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollo Económico</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>Arranque del Sistema</t>
         </is>
       </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje test</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I13" s="0">
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I14" s="0">
         <v>100</v>
       </c>
-      <c r="J13" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="K13" s="0" t="inlineStr">
-        <is>
-          <t>9.96758508914101****</t>
-        </is>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="inlineStr">
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
         <is>
           <t>Supuesto Entrega de Tabletas a estudiantes destacados</t>
         </is>
